--- a/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
@@ -421,28 +421,28 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.983403508929496</v>
+        <v>0.9834035089294975</v>
       </c>
       <c r="D2">
-        <v>1.005194374883597</v>
+        <v>1.005194374883598</v>
       </c>
       <c r="E2">
-        <v>0.9916242922288279</v>
+        <v>0.9916242922288292</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039152707090436</v>
+        <v>1.039152707090437</v>
       </c>
       <c r="J2">
-        <v>1.006092208768882</v>
+        <v>1.006092208768884</v>
       </c>
       <c r="K2">
-        <v>1.016581815064111</v>
+        <v>1.016581815064113</v>
       </c>
       <c r="L2">
-        <v>1.003201560575946</v>
+        <v>1.003201560575947</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,13 +453,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9915527629072499</v>
+        <v>0.9915527629072496</v>
       </c>
       <c r="D3">
         <v>1.011435330227027</v>
       </c>
       <c r="E3">
-        <v>0.9984124195071856</v>
+        <v>0.9984124195071855</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -474,7 +474,7 @@
         <v>1.021923955205415</v>
       </c>
       <c r="L3">
-        <v>1.00906565410628</v>
+        <v>1.009065654106279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,7 +485,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9966477554946681</v>
+        <v>0.9966477554946682</v>
       </c>
       <c r="D4">
         <v>1.015338166885524</v>
@@ -506,7 +506,7 @@
         <v>1.02525493227791</v>
       </c>
       <c r="L4">
-        <v>1.012729365261738</v>
+        <v>1.012729365261737</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,10 +517,10 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9987496753125158</v>
+        <v>0.998749675312516</v>
       </c>
       <c r="D5">
-        <v>1.01694834303996</v>
+        <v>1.016948343039961</v>
       </c>
       <c r="E5">
         <v>1.004417985048625</v>
@@ -535,7 +535,7 @@
         <v>1.017729201850905</v>
       </c>
       <c r="K5">
-        <v>1.026626848600895</v>
+        <v>1.026626848600896</v>
       </c>
       <c r="L5">
         <v>1.014240110048981</v>
@@ -549,7 +549,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9991003221242003</v>
+        <v>0.9991003221242002</v>
       </c>
       <c r="D6">
         <v>1.017216956474006</v>
@@ -581,13 +581,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9966759953955563</v>
+        <v>0.996675995395557</v>
       </c>
       <c r="D7">
         <v>1.015359799955287</v>
       </c>
       <c r="E7">
-        <v>1.002686547520505</v>
+        <v>1.002686547520506</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>1.043476086981939</v>
       </c>
       <c r="J7">
-        <v>1.016158991466052</v>
+        <v>1.016158991466053</v>
       </c>
       <c r="K7">
         <v>1.02527337348712</v>
@@ -613,28 +613,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9861961329180324</v>
+        <v>0.9861961329180333</v>
       </c>
       <c r="D8">
         <v>1.007332762369912</v>
       </c>
       <c r="E8">
-        <v>0.9939490203444311</v>
+        <v>0.9939490203444319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040069708343182</v>
+        <v>1.040069708343183</v>
       </c>
       <c r="J8">
-        <v>1.008212476896534</v>
+        <v>1.008212476896535</v>
       </c>
       <c r="K8">
-        <v>1.018414314472724</v>
+        <v>1.018414314472725</v>
       </c>
       <c r="L8">
-        <v>1.005211584688437</v>
+        <v>1.005211584688438</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +645,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9662317583092392</v>
+        <v>0.9662317583092374</v>
       </c>
       <c r="D9">
-        <v>0.9920564980196483</v>
+        <v>0.9920564980196469</v>
       </c>
       <c r="E9">
-        <v>0.977363515731183</v>
+        <v>0.9773635157311811</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033442097965026</v>
+        <v>1.033442097965025</v>
       </c>
       <c r="J9">
-        <v>0.9930360232683453</v>
+        <v>0.9930360232683435</v>
       </c>
       <c r="K9">
-        <v>1.005279781283883</v>
+        <v>1.005279781283881</v>
       </c>
       <c r="L9">
-        <v>0.9908348508144872</v>
+        <v>0.9908348508144853</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,13 +677,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.951700010406941</v>
+        <v>0.9517000104069405</v>
       </c>
       <c r="D10">
-        <v>0.9809602820214408</v>
+        <v>0.9809602820214405</v>
       </c>
       <c r="E10">
-        <v>0.9653418646881911</v>
+        <v>0.9653418646881904</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>1.02853028603243</v>
       </c>
       <c r="J10">
-        <v>0.9819702610068651</v>
+        <v>0.9819702610068647</v>
       </c>
       <c r="K10">
-        <v>0.9956820295444696</v>
+        <v>0.9956820295444694</v>
       </c>
       <c r="L10">
-        <v>0.980366406847447</v>
+        <v>0.9803664068474466</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9450591274302256</v>
+        <v>0.945059127430226</v>
       </c>
       <c r="D11">
-        <v>0.9758982379044158</v>
+        <v>0.9758982379044161</v>
       </c>
       <c r="E11">
-        <v>0.9598627651415039</v>
+        <v>0.9598627651415045</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.026266588157958</v>
       </c>
       <c r="J11">
-        <v>0.9769106387792698</v>
+        <v>0.9769106387792703</v>
       </c>
       <c r="K11">
-        <v>0.9912894556291318</v>
+        <v>0.9912894556291323</v>
       </c>
       <c r="L11">
-        <v>0.975583496140345</v>
+        <v>0.9755834961403456</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +741,28 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9425340601056147</v>
+        <v>0.9425340601056175</v>
       </c>
       <c r="D12">
-        <v>0.9739751498454345</v>
+        <v>0.973975149845437</v>
       </c>
       <c r="E12">
-        <v>0.9577819146178628</v>
+        <v>0.9577819146178652</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025403176322632</v>
+        <v>1.025403176322634</v>
       </c>
       <c r="J12">
-        <v>0.9749866006011619</v>
+        <v>0.9749866006011645</v>
       </c>
       <c r="K12">
-        <v>0.9896185264965848</v>
+        <v>0.9896185264965872</v>
       </c>
       <c r="L12">
-        <v>0.9737652477339247</v>
+        <v>0.9737652477339273</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9430784428287848</v>
+        <v>0.9430784428287853</v>
       </c>
       <c r="D13">
-        <v>0.9743896705693667</v>
+        <v>0.9743896705693669</v>
       </c>
       <c r="E13">
-        <v>0.9582304119498476</v>
+        <v>0.9582304119498483</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.02558943846165</v>
       </c>
       <c r="J13">
-        <v>0.9754014130529667</v>
+        <v>0.9754014130529671</v>
       </c>
       <c r="K13">
-        <v>0.9899787935400075</v>
+        <v>0.9899787935400077</v>
       </c>
       <c r="L13">
-        <v>0.9741572266252473</v>
+        <v>0.974157226625248</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -811,7 +811,7 @@
         <v>0.975740174796574</v>
       </c>
       <c r="E14">
-        <v>0.9596917219920124</v>
+        <v>0.9596917219920121</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.026195691555908</v>
       </c>
       <c r="J14">
-        <v>0.9767525363713252</v>
+        <v>0.9767525363713249</v>
       </c>
       <c r="K14">
         <v>0.9911521624424277</v>
       </c>
       <c r="L14">
-        <v>0.9754340751447221</v>
+        <v>0.9754340751447219</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9459362266504611</v>
+        <v>0.9459362266504608</v>
       </c>
       <c r="D15">
         <v>0.9765664552376918</v>
       </c>
       <c r="E15">
-        <v>0.9605858830123503</v>
+        <v>0.96058588301235</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,10 +852,10 @@
         <v>1.026566167177916</v>
       </c>
       <c r="J15">
-        <v>0.9775789454416728</v>
+        <v>0.9775789454416727</v>
       </c>
       <c r="K15">
-        <v>0.9918697787907435</v>
+        <v>0.9918697787907432</v>
       </c>
       <c r="L15">
         <v>0.9762151290641286</v>
@@ -869,28 +869,28 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9521329115367629</v>
+        <v>0.9521329115367639</v>
       </c>
       <c r="D16">
-        <v>0.9812904714883318</v>
+        <v>0.9812904714883327</v>
       </c>
       <c r="E16">
-        <v>0.9656993563058928</v>
+        <v>0.9656993563058939</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028677472174493</v>
+        <v>1.028677472174494</v>
       </c>
       <c r="J16">
-        <v>0.9823000440791173</v>
+        <v>0.9823000440791184</v>
       </c>
       <c r="K16">
-        <v>0.9959682549361649</v>
+        <v>0.9959682549361658</v>
       </c>
       <c r="L16">
-        <v>0.9806782300275025</v>
+        <v>0.9806782300275035</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,7 +901,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9559226822984389</v>
+        <v>0.9559226822984387</v>
       </c>
       <c r="D17">
         <v>0.9841820935383614</v>
@@ -919,7 +919,7 @@
         <v>0.9851868030439408</v>
       </c>
       <c r="K17">
-        <v>0.9984732712062483</v>
+        <v>0.9984732712062484</v>
       </c>
       <c r="L17">
         <v>0.983408182998091</v>
@@ -933,13 +933,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9581000136434527</v>
+        <v>0.9581000136434519</v>
       </c>
       <c r="D18">
-        <v>0.9858442142608473</v>
+        <v>0.9858442142608467</v>
       </c>
       <c r="E18">
-        <v>0.9706310076497497</v>
+        <v>0.9706310076497492</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1.030701157451468</v>
       </c>
       <c r="J18">
-        <v>0.986845066376577</v>
+        <v>0.9868450663765761</v>
       </c>
       <c r="K18">
-        <v>0.9999118522121461</v>
+        <v>0.9999118522121454</v>
       </c>
       <c r="L18">
-        <v>0.9849767053257309</v>
+        <v>0.98497670532573</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,28 +965,28 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9588369662519606</v>
+        <v>0.9588369662519624</v>
       </c>
       <c r="D19">
-        <v>0.9864069125619278</v>
+        <v>0.9864069125619298</v>
       </c>
       <c r="E19">
-        <v>0.9712405926962844</v>
+        <v>0.9712405926962856</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030950394294539</v>
+        <v>1.03095039429454</v>
       </c>
       <c r="J19">
-        <v>0.9874062826254747</v>
+        <v>0.9874062826254765</v>
       </c>
       <c r="K19">
-        <v>1.000398650956389</v>
+        <v>1.000398650956391</v>
       </c>
       <c r="L19">
-        <v>0.9855076060631969</v>
+        <v>0.9855076060631983</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1000,7 +1000,7 @@
         <v>0.9555195476859588</v>
       </c>
       <c r="D20">
-        <v>0.983874413406515</v>
+        <v>0.9838744134065149</v>
       </c>
       <c r="E20">
         <v>0.9684974105254597</v>
@@ -1009,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029827218713731</v>
+        <v>1.02982721871373</v>
       </c>
       <c r="J20">
-        <v>0.9848797518064341</v>
+        <v>0.9848797518064339</v>
       </c>
       <c r="K20">
-        <v>0.998206864763867</v>
+        <v>0.9982068647638669</v>
       </c>
       <c r="L20">
         <v>0.9831177755615402</v>
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9443311363351296</v>
+        <v>0.9443311363351312</v>
       </c>
       <c r="D21">
-        <v>0.9753437037597554</v>
+        <v>0.975343703759757</v>
       </c>
       <c r="E21">
-        <v>0.9592627035737983</v>
+        <v>0.9592627035737998</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026017806061683</v>
+        <v>1.026017806061684</v>
       </c>
       <c r="J21">
-        <v>0.976355936179099</v>
+        <v>0.9763559361791005</v>
       </c>
       <c r="K21">
-        <v>0.9908077536372129</v>
+        <v>0.9908077536372145</v>
       </c>
       <c r="L21">
-        <v>0.9750592614335137</v>
+        <v>0.9750592614335153</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9369552275486431</v>
+        <v>0.9369552275486426</v>
       </c>
       <c r="D22">
-        <v>0.9697297880158148</v>
+        <v>0.9697297880158146</v>
       </c>
       <c r="E22">
-        <v>0.9531894226257193</v>
+        <v>0.9531894226257192</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1076,13 +1076,13 @@
         <v>1.023490825093349</v>
       </c>
       <c r="J22">
-        <v>0.9707355030717265</v>
+        <v>0.9707355030717261</v>
       </c>
       <c r="K22">
-        <v>0.9859257375089816</v>
+        <v>0.9859257375089815</v>
       </c>
       <c r="L22">
-        <v>0.9697489613186561</v>
+        <v>0.9697489613186556</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9408999565658206</v>
+        <v>0.9408999565658211</v>
       </c>
       <c r="D23">
-        <v>0.9727311310316195</v>
+        <v>0.9727311310316202</v>
       </c>
       <c r="E23">
-        <v>0.9564360203484292</v>
+        <v>0.9564360203484299</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.024843684324741</v>
       </c>
       <c r="J23">
-        <v>0.9737414196012245</v>
+        <v>0.9737414196012251</v>
       </c>
       <c r="K23">
-        <v>0.9885370049929221</v>
+        <v>0.9885370049929227</v>
       </c>
       <c r="L23">
-        <v>0.9725886930493364</v>
+        <v>0.9725886930493369</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9557018089530955</v>
+        <v>0.9557018089530936</v>
       </c>
       <c r="D24">
-        <v>0.9840135162614357</v>
+        <v>0.9840135162614339</v>
       </c>
       <c r="E24">
-        <v>0.9686480635338935</v>
+        <v>0.9686480635338919</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.029889007448295</v>
       </c>
       <c r="J24">
-        <v>0.9850185736285926</v>
+        <v>0.9850185736285909</v>
       </c>
       <c r="K24">
-        <v>0.9983273117839673</v>
+        <v>0.9983273117839655</v>
       </c>
       <c r="L24">
-        <v>0.9832490714687341</v>
+        <v>0.9832490714687325</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,28 +1157,28 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9715908706179704</v>
+        <v>0.9715908706179701</v>
       </c>
       <c r="D25">
-        <v>0.9961542209979035</v>
+        <v>0.9961542209979032</v>
       </c>
       <c r="E25">
-        <v>0.9818078282929215</v>
+        <v>0.9818078282929208</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035236507000502</v>
+        <v>1.035236507000501</v>
       </c>
       <c r="J25">
-        <v>0.9971136552777832</v>
+        <v>0.9971136552777827</v>
       </c>
       <c r="K25">
-        <v>1.00881253254311</v>
+        <v>1.008812532543109</v>
       </c>
       <c r="L25">
-        <v>0.994695275551716</v>
+        <v>0.9946952755517156</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
@@ -421,28 +421,28 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9834035089294975</v>
+        <v>0.983403508929496</v>
       </c>
       <c r="D2">
-        <v>1.005194374883598</v>
+        <v>1.005194374883597</v>
       </c>
       <c r="E2">
-        <v>0.9916242922288292</v>
+        <v>0.9916242922288279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039152707090437</v>
+        <v>1.039152707090436</v>
       </c>
       <c r="J2">
-        <v>1.006092208768884</v>
+        <v>1.006092208768882</v>
       </c>
       <c r="K2">
-        <v>1.016581815064113</v>
+        <v>1.016581815064111</v>
       </c>
       <c r="L2">
-        <v>1.003201560575947</v>
+        <v>1.003201560575946</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,13 +453,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9915527629072496</v>
+        <v>0.9915527629072499</v>
       </c>
       <c r="D3">
         <v>1.011435330227027</v>
       </c>
       <c r="E3">
-        <v>0.9984124195071855</v>
+        <v>0.9984124195071856</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -474,7 +474,7 @@
         <v>1.021923955205415</v>
       </c>
       <c r="L3">
-        <v>1.009065654106279</v>
+        <v>1.00906565410628</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,7 +485,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9966477554946682</v>
+        <v>0.9966477554946681</v>
       </c>
       <c r="D4">
         <v>1.015338166885524</v>
@@ -506,7 +506,7 @@
         <v>1.02525493227791</v>
       </c>
       <c r="L4">
-        <v>1.012729365261737</v>
+        <v>1.012729365261738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,10 +517,10 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.998749675312516</v>
+        <v>0.9987496753125158</v>
       </c>
       <c r="D5">
-        <v>1.016948343039961</v>
+        <v>1.01694834303996</v>
       </c>
       <c r="E5">
         <v>1.004417985048625</v>
@@ -535,7 +535,7 @@
         <v>1.017729201850905</v>
       </c>
       <c r="K5">
-        <v>1.026626848600896</v>
+        <v>1.026626848600895</v>
       </c>
       <c r="L5">
         <v>1.014240110048981</v>
@@ -549,7 +549,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9991003221242002</v>
+        <v>0.9991003221242003</v>
       </c>
       <c r="D6">
         <v>1.017216956474006</v>
@@ -581,13 +581,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.996675995395557</v>
+        <v>0.9966759953955563</v>
       </c>
       <c r="D7">
         <v>1.015359799955287</v>
       </c>
       <c r="E7">
-        <v>1.002686547520506</v>
+        <v>1.002686547520505</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>1.043476086981939</v>
       </c>
       <c r="J7">
-        <v>1.016158991466053</v>
+        <v>1.016158991466052</v>
       </c>
       <c r="K7">
         <v>1.02527337348712</v>
@@ -613,28 +613,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9861961329180333</v>
+        <v>0.9861961329180324</v>
       </c>
       <c r="D8">
         <v>1.007332762369912</v>
       </c>
       <c r="E8">
-        <v>0.9939490203444319</v>
+        <v>0.9939490203444311</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040069708343183</v>
+        <v>1.040069708343182</v>
       </c>
       <c r="J8">
-        <v>1.008212476896535</v>
+        <v>1.008212476896534</v>
       </c>
       <c r="K8">
-        <v>1.018414314472725</v>
+        <v>1.018414314472724</v>
       </c>
       <c r="L8">
-        <v>1.005211584688438</v>
+        <v>1.005211584688437</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +645,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9662317583092374</v>
+        <v>0.9662317583092392</v>
       </c>
       <c r="D9">
-        <v>0.9920564980196469</v>
+        <v>0.9920564980196483</v>
       </c>
       <c r="E9">
-        <v>0.9773635157311811</v>
+        <v>0.977363515731183</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033442097965025</v>
+        <v>1.033442097965026</v>
       </c>
       <c r="J9">
-        <v>0.9930360232683435</v>
+        <v>0.9930360232683453</v>
       </c>
       <c r="K9">
-        <v>1.005279781283881</v>
+        <v>1.005279781283883</v>
       </c>
       <c r="L9">
-        <v>0.9908348508144853</v>
+        <v>0.9908348508144872</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,13 +677,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9517000104069405</v>
+        <v>0.951700010406941</v>
       </c>
       <c r="D10">
-        <v>0.9809602820214405</v>
+        <v>0.9809602820214408</v>
       </c>
       <c r="E10">
-        <v>0.9653418646881904</v>
+        <v>0.9653418646881911</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>1.02853028603243</v>
       </c>
       <c r="J10">
-        <v>0.9819702610068647</v>
+        <v>0.9819702610068651</v>
       </c>
       <c r="K10">
-        <v>0.9956820295444694</v>
+        <v>0.9956820295444696</v>
       </c>
       <c r="L10">
-        <v>0.9803664068474466</v>
+        <v>0.980366406847447</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.945059127430226</v>
+        <v>0.9450591274302256</v>
       </c>
       <c r="D11">
-        <v>0.9758982379044161</v>
+        <v>0.9758982379044158</v>
       </c>
       <c r="E11">
-        <v>0.9598627651415045</v>
+        <v>0.9598627651415039</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.026266588157958</v>
       </c>
       <c r="J11">
-        <v>0.9769106387792703</v>
+        <v>0.9769106387792698</v>
       </c>
       <c r="K11">
-        <v>0.9912894556291323</v>
+        <v>0.9912894556291318</v>
       </c>
       <c r="L11">
-        <v>0.9755834961403456</v>
+        <v>0.975583496140345</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +741,28 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9425340601056175</v>
+        <v>0.9425340601056147</v>
       </c>
       <c r="D12">
-        <v>0.973975149845437</v>
+        <v>0.9739751498454345</v>
       </c>
       <c r="E12">
-        <v>0.9577819146178652</v>
+        <v>0.9577819146178628</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025403176322634</v>
+        <v>1.025403176322632</v>
       </c>
       <c r="J12">
-        <v>0.9749866006011645</v>
+        <v>0.9749866006011619</v>
       </c>
       <c r="K12">
-        <v>0.9896185264965872</v>
+        <v>0.9896185264965848</v>
       </c>
       <c r="L12">
-        <v>0.9737652477339273</v>
+        <v>0.9737652477339247</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9430784428287853</v>
+        <v>0.9430784428287848</v>
       </c>
       <c r="D13">
-        <v>0.9743896705693669</v>
+        <v>0.9743896705693667</v>
       </c>
       <c r="E13">
-        <v>0.9582304119498483</v>
+        <v>0.9582304119498476</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.02558943846165</v>
       </c>
       <c r="J13">
-        <v>0.9754014130529671</v>
+        <v>0.9754014130529667</v>
       </c>
       <c r="K13">
-        <v>0.9899787935400077</v>
+        <v>0.9899787935400075</v>
       </c>
       <c r="L13">
-        <v>0.974157226625248</v>
+        <v>0.9741572266252473</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -811,7 +811,7 @@
         <v>0.975740174796574</v>
       </c>
       <c r="E14">
-        <v>0.9596917219920121</v>
+        <v>0.9596917219920124</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.026195691555908</v>
       </c>
       <c r="J14">
-        <v>0.9767525363713249</v>
+        <v>0.9767525363713252</v>
       </c>
       <c r="K14">
         <v>0.9911521624424277</v>
       </c>
       <c r="L14">
-        <v>0.9754340751447219</v>
+        <v>0.9754340751447221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9459362266504608</v>
+        <v>0.9459362266504611</v>
       </c>
       <c r="D15">
         <v>0.9765664552376918</v>
       </c>
       <c r="E15">
-        <v>0.96058588301235</v>
+        <v>0.9605858830123503</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,10 +852,10 @@
         <v>1.026566167177916</v>
       </c>
       <c r="J15">
-        <v>0.9775789454416727</v>
+        <v>0.9775789454416728</v>
       </c>
       <c r="K15">
-        <v>0.9918697787907432</v>
+        <v>0.9918697787907435</v>
       </c>
       <c r="L15">
         <v>0.9762151290641286</v>
@@ -869,28 +869,28 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9521329115367639</v>
+        <v>0.9521329115367629</v>
       </c>
       <c r="D16">
-        <v>0.9812904714883327</v>
+        <v>0.9812904714883318</v>
       </c>
       <c r="E16">
-        <v>0.9656993563058939</v>
+        <v>0.9656993563058928</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028677472174494</v>
+        <v>1.028677472174493</v>
       </c>
       <c r="J16">
-        <v>0.9823000440791184</v>
+        <v>0.9823000440791173</v>
       </c>
       <c r="K16">
-        <v>0.9959682549361658</v>
+        <v>0.9959682549361649</v>
       </c>
       <c r="L16">
-        <v>0.9806782300275035</v>
+        <v>0.9806782300275025</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,7 +901,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9559226822984387</v>
+        <v>0.9559226822984389</v>
       </c>
       <c r="D17">
         <v>0.9841820935383614</v>
@@ -919,7 +919,7 @@
         <v>0.9851868030439408</v>
       </c>
       <c r="K17">
-        <v>0.9984732712062484</v>
+        <v>0.9984732712062483</v>
       </c>
       <c r="L17">
         <v>0.983408182998091</v>
@@ -933,13 +933,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9581000136434519</v>
+        <v>0.9581000136434527</v>
       </c>
       <c r="D18">
-        <v>0.9858442142608467</v>
+        <v>0.9858442142608473</v>
       </c>
       <c r="E18">
-        <v>0.9706310076497492</v>
+        <v>0.9706310076497497</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1.030701157451468</v>
       </c>
       <c r="J18">
-        <v>0.9868450663765761</v>
+        <v>0.986845066376577</v>
       </c>
       <c r="K18">
-        <v>0.9999118522121454</v>
+        <v>0.9999118522121461</v>
       </c>
       <c r="L18">
-        <v>0.98497670532573</v>
+        <v>0.9849767053257309</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,28 +965,28 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9588369662519624</v>
+        <v>0.9588369662519606</v>
       </c>
       <c r="D19">
-        <v>0.9864069125619298</v>
+        <v>0.9864069125619278</v>
       </c>
       <c r="E19">
-        <v>0.9712405926962856</v>
+        <v>0.9712405926962844</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03095039429454</v>
+        <v>1.030950394294539</v>
       </c>
       <c r="J19">
-        <v>0.9874062826254765</v>
+        <v>0.9874062826254747</v>
       </c>
       <c r="K19">
-        <v>1.000398650956391</v>
+        <v>1.000398650956389</v>
       </c>
       <c r="L19">
-        <v>0.9855076060631983</v>
+        <v>0.9855076060631969</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1000,7 +1000,7 @@
         <v>0.9555195476859588</v>
       </c>
       <c r="D20">
-        <v>0.9838744134065149</v>
+        <v>0.983874413406515</v>
       </c>
       <c r="E20">
         <v>0.9684974105254597</v>
@@ -1009,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02982721871373</v>
+        <v>1.029827218713731</v>
       </c>
       <c r="J20">
-        <v>0.9848797518064339</v>
+        <v>0.9848797518064341</v>
       </c>
       <c r="K20">
-        <v>0.9982068647638669</v>
+        <v>0.998206864763867</v>
       </c>
       <c r="L20">
         <v>0.9831177755615402</v>
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9443311363351312</v>
+        <v>0.9443311363351296</v>
       </c>
       <c r="D21">
-        <v>0.975343703759757</v>
+        <v>0.9753437037597554</v>
       </c>
       <c r="E21">
-        <v>0.9592627035737998</v>
+        <v>0.9592627035737983</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026017806061684</v>
+        <v>1.026017806061683</v>
       </c>
       <c r="J21">
-        <v>0.9763559361791005</v>
+        <v>0.976355936179099</v>
       </c>
       <c r="K21">
-        <v>0.9908077536372145</v>
+        <v>0.9908077536372129</v>
       </c>
       <c r="L21">
-        <v>0.9750592614335153</v>
+        <v>0.9750592614335137</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9369552275486426</v>
+        <v>0.9369552275486431</v>
       </c>
       <c r="D22">
-        <v>0.9697297880158146</v>
+        <v>0.9697297880158148</v>
       </c>
       <c r="E22">
-        <v>0.9531894226257192</v>
+        <v>0.9531894226257193</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1076,13 +1076,13 @@
         <v>1.023490825093349</v>
       </c>
       <c r="J22">
-        <v>0.9707355030717261</v>
+        <v>0.9707355030717265</v>
       </c>
       <c r="K22">
-        <v>0.9859257375089815</v>
+        <v>0.9859257375089816</v>
       </c>
       <c r="L22">
-        <v>0.9697489613186556</v>
+        <v>0.9697489613186561</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9408999565658211</v>
+        <v>0.9408999565658206</v>
       </c>
       <c r="D23">
-        <v>0.9727311310316202</v>
+        <v>0.9727311310316195</v>
       </c>
       <c r="E23">
-        <v>0.9564360203484299</v>
+        <v>0.9564360203484292</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.024843684324741</v>
       </c>
       <c r="J23">
-        <v>0.9737414196012251</v>
+        <v>0.9737414196012245</v>
       </c>
       <c r="K23">
-        <v>0.9885370049929227</v>
+        <v>0.9885370049929221</v>
       </c>
       <c r="L23">
-        <v>0.9725886930493369</v>
+        <v>0.9725886930493364</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9557018089530936</v>
+        <v>0.9557018089530955</v>
       </c>
       <c r="D24">
-        <v>0.9840135162614339</v>
+        <v>0.9840135162614357</v>
       </c>
       <c r="E24">
-        <v>0.9686480635338919</v>
+        <v>0.9686480635338935</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.029889007448295</v>
       </c>
       <c r="J24">
-        <v>0.9850185736285909</v>
+        <v>0.9850185736285926</v>
       </c>
       <c r="K24">
-        <v>0.9983273117839655</v>
+        <v>0.9983273117839673</v>
       </c>
       <c r="L24">
-        <v>0.9832490714687325</v>
+        <v>0.9832490714687341</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,28 +1157,28 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9715908706179701</v>
+        <v>0.9715908706179704</v>
       </c>
       <c r="D25">
-        <v>0.9961542209979032</v>
+        <v>0.9961542209979035</v>
       </c>
       <c r="E25">
-        <v>0.9818078282929208</v>
+        <v>0.9818078282929215</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035236507000501</v>
+        <v>1.035236507000502</v>
       </c>
       <c r="J25">
-        <v>0.9971136552777827</v>
+        <v>0.9971136552777832</v>
       </c>
       <c r="K25">
-        <v>1.008812532543109</v>
+        <v>1.00881253254311</v>
       </c>
       <c r="L25">
-        <v>0.9946952755517156</v>
+        <v>0.994695275551716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
@@ -421,28 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.983403508929496</v>
+        <v>0.9861605386250784</v>
       </c>
       <c r="D2">
-        <v>1.005194374883597</v>
+        <v>1.007389425034842</v>
       </c>
       <c r="E2">
-        <v>0.9916242922288279</v>
+        <v>0.9939972962951289</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039152707090436</v>
+        <v>1.040266454967038</v>
       </c>
       <c r="J2">
-        <v>1.006092208768882</v>
+        <v>1.008763214670116</v>
       </c>
       <c r="K2">
-        <v>1.016581815064111</v>
+        <v>1.018746764481363</v>
       </c>
       <c r="L2">
-        <v>1.003201560575946</v>
+        <v>1.005540896666365</v>
+      </c>
+      <c r="N2">
+        <v>1.010195774141705</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9915527629072499</v>
+        <v>0.9942870237222461</v>
       </c>
       <c r="D3">
-        <v>1.011435330227027</v>
+        <v>1.013615758930399</v>
       </c>
       <c r="E3">
-        <v>0.9984124195071856</v>
+        <v>1.000769133910431</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04181803640675</v>
+        <v>1.042925710608658</v>
       </c>
       <c r="J3">
-        <v>1.01227638732733</v>
+        <v>1.01493465117525</v>
       </c>
       <c r="K3">
-        <v>1.021923955205415</v>
+        <v>1.024077338047282</v>
       </c>
       <c r="L3">
-        <v>1.00906565410628</v>
+        <v>1.011392182975098</v>
+      </c>
+      <c r="N3">
+        <v>1.01637597479455</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,28 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9966477554946681</v>
+        <v>0.9993688080234188</v>
       </c>
       <c r="D4">
-        <v>1.015338166885524</v>
+        <v>1.017510170760902</v>
       </c>
       <c r="E4">
-        <v>1.002662974087527</v>
+        <v>1.005010280676006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04346698775641</v>
+        <v>1.044571244169179</v>
       </c>
       <c r="J4">
-        <v>1.016137602491203</v>
+        <v>1.01878867354886</v>
       </c>
       <c r="K4">
-        <v>1.02525493227791</v>
+        <v>1.027401758821882</v>
       </c>
       <c r="L4">
-        <v>1.012729365261738</v>
+        <v>1.015048609813458</v>
+      </c>
+      <c r="N4">
+        <v>1.020235470321994</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9987496753125158</v>
+        <v>1.001465504333112</v>
       </c>
       <c r="D5">
-        <v>1.01694834303996</v>
+        <v>1.019117029696168</v>
       </c>
       <c r="E5">
-        <v>1.004417985048625</v>
+        <v>1.006761581604647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04414298179515</v>
+        <v>1.045245912878503</v>
       </c>
       <c r="J5">
-        <v>1.017729201850905</v>
+        <v>1.020377476399897</v>
       </c>
       <c r="K5">
-        <v>1.026626848600895</v>
+        <v>1.028771119987397</v>
       </c>
       <c r="L5">
-        <v>1.014240110048981</v>
+        <v>1.016556509160928</v>
+      </c>
+      <c r="N5">
+        <v>1.021826529455317</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9991003221242003</v>
+        <v>1.001815292455179</v>
       </c>
       <c r="D6">
-        <v>1.017216956474006</v>
+        <v>1.019385098701196</v>
       </c>
       <c r="E6">
-        <v>1.004710842656197</v>
+        <v>1.007053829955786</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044255498573976</v>
+        <v>1.045358213372901</v>
       </c>
       <c r="J6">
-        <v>1.017994635302962</v>
+        <v>1.020642452987398</v>
       </c>
       <c r="K6">
-        <v>1.026855578281048</v>
+        <v>1.028999431880766</v>
       </c>
       <c r="L6">
-        <v>1.01449209186573</v>
+        <v>1.01680802532002</v>
+      </c>
+      <c r="N6">
+        <v>1.022091882339966</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9966759953955563</v>
+        <v>0.9993969768773142</v>
       </c>
       <c r="D7">
-        <v>1.015359799955287</v>
+        <v>1.017531758651992</v>
       </c>
       <c r="E7">
-        <v>1.002686547520505</v>
+        <v>1.005033803604471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043476086981939</v>
+        <v>1.044580325260982</v>
       </c>
       <c r="J7">
-        <v>1.016158991466052</v>
+        <v>1.018810024293192</v>
       </c>
       <c r="K7">
-        <v>1.02527337348712</v>
+        <v>1.027420165124359</v>
       </c>
       <c r="L7">
-        <v>1.01274966545932</v>
+        <v>1.015068871166137</v>
+      </c>
+      <c r="N7">
+        <v>1.020256851386832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9861961329180324</v>
+        <v>0.988945128861744</v>
       </c>
       <c r="D8">
-        <v>1.007332762369912</v>
+        <v>1.009522641338441</v>
       </c>
       <c r="E8">
-        <v>0.9939490203444311</v>
+        <v>0.9963162677528522</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040069708343182</v>
+        <v>1.041181290295354</v>
       </c>
       <c r="J8">
-        <v>1.008212476896534</v>
+        <v>1.010878942763025</v>
       </c>
       <c r="K8">
-        <v>1.018414314472724</v>
+        <v>1.020575149080146</v>
       </c>
       <c r="L8">
-        <v>1.005211584688437</v>
+        <v>1.007546369833733</v>
+      </c>
+      <c r="N8">
+        <v>1.012314506811184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9662317583092392</v>
+        <v>0.9690437284708434</v>
       </c>
       <c r="D9">
-        <v>0.9920564980196483</v>
+        <v>0.9942871587816283</v>
       </c>
       <c r="E9">
-        <v>0.977363515731183</v>
+        <v>0.9797760761004237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033442097965026</v>
+        <v>1.034571145673794</v>
       </c>
       <c r="J9">
-        <v>0.9930360232683453</v>
+        <v>0.9957390707587684</v>
       </c>
       <c r="K9">
-        <v>1.005279781283883</v>
+        <v>1.007473607883186</v>
       </c>
       <c r="L9">
-        <v>0.9908348508144872</v>
+        <v>0.9932060219819232</v>
+      </c>
+      <c r="N9">
+        <v>0.9971531344521137</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.951700010406941</v>
+        <v>0.9545664785366282</v>
       </c>
       <c r="D10">
-        <v>0.9809602820214408</v>
+        <v>0.9832265236993855</v>
       </c>
       <c r="E10">
-        <v>0.9653418646881911</v>
+        <v>0.9677938675502138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02853028603243</v>
+        <v>1.02967506858888</v>
       </c>
       <c r="J10">
-        <v>0.9819702610068651</v>
+        <v>0.984706324688006</v>
       </c>
       <c r="K10">
-        <v>0.9956820295444696</v>
+        <v>0.9979053797287294</v>
       </c>
       <c r="L10">
-        <v>0.980366406847447</v>
+        <v>0.9827700235785597</v>
+      </c>
+      <c r="N10">
+        <v>0.9861047206164573</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9450591274302256</v>
+        <v>0.9479531743626598</v>
       </c>
       <c r="D11">
-        <v>0.9758982379044158</v>
+        <v>0.9781825389088245</v>
       </c>
       <c r="E11">
-        <v>0.9598627651415039</v>
+        <v>0.9623347731563768</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026266588157958</v>
+        <v>1.027419469658206</v>
       </c>
       <c r="J11">
-        <v>0.9769106387792698</v>
+        <v>0.9796637435503204</v>
       </c>
       <c r="K11">
-        <v>0.9912894556291318</v>
+        <v>0.9935279725801603</v>
       </c>
       <c r="L11">
-        <v>0.975583496140345</v>
+        <v>0.978003760465108</v>
+      </c>
+      <c r="N11">
+        <v>0.9810549784351639</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9425340601056147</v>
+        <v>0.9454390614810158</v>
       </c>
       <c r="D12">
-        <v>0.9739751498454345</v>
+        <v>0.9762666307257976</v>
       </c>
       <c r="E12">
-        <v>0.9577819146178628</v>
+        <v>0.9602618746299741</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025403176322632</v>
+        <v>1.026559294263128</v>
       </c>
       <c r="J12">
-        <v>0.9749866006011619</v>
+        <v>0.9777465251737514</v>
       </c>
       <c r="K12">
-        <v>0.9896185264965848</v>
+        <v>0.9918631013277612</v>
       </c>
       <c r="L12">
-        <v>0.9737652477339247</v>
+        <v>0.9761921589304494</v>
+      </c>
+      <c r="N12">
+        <v>0.9791350373885921</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,28 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9430784428287848</v>
+        <v>0.9459810601892322</v>
       </c>
       <c r="D13">
-        <v>0.9743896705693667</v>
+        <v>0.9766795886212225</v>
       </c>
       <c r="E13">
-        <v>0.9582304119498476</v>
+        <v>0.9607086411237595</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02558943846165</v>
+        <v>1.026744851197789</v>
       </c>
       <c r="J13">
-        <v>0.9754014130529667</v>
+        <v>0.9781598511310838</v>
       </c>
       <c r="K13">
-        <v>0.9899787935400075</v>
+        <v>0.9922220484977897</v>
       </c>
       <c r="L13">
-        <v>0.9741572266252473</v>
+        <v>0.9765826897228339</v>
+      </c>
+      <c r="N13">
+        <v>0.9795489503161927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9448516329639075</v>
+        <v>0.9477465701546451</v>
       </c>
       <c r="D14">
-        <v>0.975740174796574</v>
+        <v>0.9780250591798457</v>
       </c>
       <c r="E14">
-        <v>0.9596917219920124</v>
+        <v>0.9621643761481062</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026195691555908</v>
+        <v>1.027348835695255</v>
       </c>
       <c r="J14">
-        <v>0.9767525363713252</v>
+        <v>0.9795061943581297</v>
       </c>
       <c r="K14">
-        <v>0.9911521624424277</v>
+        <v>0.9933911710446434</v>
       </c>
       <c r="L14">
-        <v>0.9754340751447221</v>
+        <v>0.977854878968894</v>
+      </c>
+      <c r="N14">
+        <v>0.980897205505049</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9459362266504611</v>
+        <v>0.9488265297947628</v>
       </c>
       <c r="D15">
-        <v>0.9765664552376918</v>
+        <v>0.97884830322393</v>
       </c>
       <c r="E15">
-        <v>0.9605858830123503</v>
+        <v>0.9630551740476186</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026566167177916</v>
+        <v>1.027717944977637</v>
       </c>
       <c r="J15">
-        <v>0.9775789454416728</v>
+        <v>0.9803297258216519</v>
       </c>
       <c r="K15">
-        <v>0.9918697787907435</v>
+        <v>0.994106229544261</v>
       </c>
       <c r="L15">
-        <v>0.9762151290641286</v>
+        <v>0.978633126010678</v>
+      </c>
+      <c r="N15">
+        <v>0.98172190647771</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,31 +911,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9521329115367629</v>
+        <v>0.9549976422270441</v>
       </c>
       <c r="D16">
-        <v>0.9812904714883318</v>
+        <v>0.98355557639192</v>
       </c>
       <c r="E16">
-        <v>0.9656993563058928</v>
+        <v>0.968150099682424</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028677472174493</v>
+        <v>1.029821747120906</v>
       </c>
       <c r="J16">
-        <v>0.9823000440791173</v>
+        <v>0.9850350408461046</v>
       </c>
       <c r="K16">
-        <v>0.9959682549361649</v>
+        <v>0.9981906540661253</v>
       </c>
       <c r="L16">
-        <v>0.9806782300275025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9830808024945275</v>
+      </c>
+      <c r="N16">
+        <v>0.9864339035892044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -901,31 +946,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9559226822984389</v>
+        <v>0.9587725092967047</v>
       </c>
       <c r="D17">
-        <v>0.9841820935383614</v>
+        <v>0.9864374527708637</v>
       </c>
       <c r="E17">
-        <v>0.9688306416727736</v>
+        <v>0.9712705859392177</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029963873789773</v>
+        <v>1.03110380884763</v>
       </c>
       <c r="J17">
-        <v>0.9851868030439408</v>
+        <v>0.9879126833665787</v>
       </c>
       <c r="K17">
-        <v>0.9984732712062483</v>
+        <v>1.000687536225162</v>
       </c>
       <c r="L17">
-        <v>0.983408182998091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9858018220898956</v>
+      </c>
+      <c r="N17">
+        <v>0.9893156326921279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -933,31 +981,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9581000136434527</v>
+        <v>0.9609415228362422</v>
       </c>
       <c r="D18">
-        <v>0.9858442142608473</v>
+        <v>0.9880941391878585</v>
       </c>
       <c r="E18">
-        <v>0.9706310076497497</v>
+        <v>0.9730649289237131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030701157451468</v>
+        <v>1.031838682426225</v>
       </c>
       <c r="J18">
-        <v>0.986845066376577</v>
+        <v>0.989565887973371</v>
       </c>
       <c r="K18">
-        <v>0.9999118522121461</v>
+        <v>1.002121597448686</v>
       </c>
       <c r="L18">
-        <v>0.9849767053257309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9873653787248859</v>
+      </c>
+      <c r="N18">
+        <v>0.9909711850390871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -965,31 +1016,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9588369662519606</v>
+        <v>0.961675699939268</v>
       </c>
       <c r="D19">
-        <v>0.9864069125619278</v>
+        <v>0.988655025006419</v>
       </c>
       <c r="E19">
-        <v>0.9712405926962844</v>
+        <v>0.9736725049111398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030950394294539</v>
+        <v>1.032087117133624</v>
       </c>
       <c r="J19">
-        <v>0.9874062826254747</v>
+        <v>0.9901254211437446</v>
       </c>
       <c r="K19">
-        <v>1.000398650956389</v>
+        <v>1.002606891408531</v>
       </c>
       <c r="L19">
-        <v>0.9855076060631969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9878946258998663</v>
+      </c>
+      <c r="N19">
+        <v>0.9915315128107419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -997,31 +1051,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9555195476859588</v>
+        <v>0.9583709341646153</v>
       </c>
       <c r="D20">
-        <v>0.983874413406515</v>
+        <v>0.9861307919038698</v>
       </c>
       <c r="E20">
-        <v>0.9684974105254597</v>
+        <v>0.9709384843622372</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029827218713731</v>
+        <v>1.03096760662683</v>
       </c>
       <c r="J20">
-        <v>0.9848797518064341</v>
+        <v>0.9876065829710512</v>
       </c>
       <c r="K20">
-        <v>0.998206864763867</v>
+        <v>1.000421978823345</v>
       </c>
       <c r="L20">
-        <v>0.9831177755615402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9855123473064316</v>
+      </c>
+      <c r="N20">
+        <v>0.9890090975989286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1029,31 +1086,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9443311363351296</v>
+        <v>0.947228314494695</v>
       </c>
       <c r="D21">
-        <v>0.9753437037597554</v>
+        <v>0.9776300567313821</v>
       </c>
       <c r="E21">
-        <v>0.9592627035737983</v>
+        <v>0.961736984293744</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026017806061683</v>
+        <v>1.027171611625772</v>
       </c>
       <c r="J21">
-        <v>0.976355936179099</v>
+        <v>0.9791109875407268</v>
       </c>
       <c r="K21">
-        <v>0.9908077536372129</v>
+        <v>0.9930480003614508</v>
       </c>
       <c r="L21">
-        <v>0.9750592614335137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.977481423838107</v>
+      </c>
+      <c r="N21">
+        <v>0.9805014374486346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1061,31 +1121,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9369552275486431</v>
+        <v>0.9398853843080099</v>
       </c>
       <c r="D22">
-        <v>0.9697297880158148</v>
+        <v>0.9720377672468961</v>
       </c>
       <c r="E22">
-        <v>0.9531894226257193</v>
+        <v>0.9556876531356024</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023490825093349</v>
+        <v>1.024654410747946</v>
       </c>
       <c r="J22">
-        <v>0.9707355030717265</v>
+        <v>0.9735111857836524</v>
       </c>
       <c r="K22">
-        <v>0.9859257375089816</v>
+        <v>0.9881842862837918</v>
       </c>
       <c r="L22">
-        <v>0.9697489613186561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9721912010362271</v>
+      </c>
+      <c r="N22">
+        <v>0.9748936833307589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1093,31 +1156,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9408999565658206</v>
+        <v>0.9438121887670604</v>
       </c>
       <c r="D23">
-        <v>0.9727311310316195</v>
+        <v>0.9750273528966257</v>
       </c>
       <c r="E23">
-        <v>0.9564360203484292</v>
+        <v>0.9589212308491566</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024843684324741</v>
+        <v>1.026001943971163</v>
       </c>
       <c r="J23">
-        <v>0.9737414196012245</v>
+        <v>0.9765058603520534</v>
       </c>
       <c r="K23">
-        <v>0.9885370049929221</v>
+        <v>0.9907855879593521</v>
       </c>
       <c r="L23">
-        <v>0.9725886930493364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9750200014486607</v>
+      </c>
+      <c r="N23">
+        <v>0.9778926106805411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1125,31 +1191,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9557018089530955</v>
+        <v>0.958552489618138</v>
       </c>
       <c r="D24">
-        <v>0.9840135162614357</v>
+        <v>0.9862694334290613</v>
       </c>
       <c r="E24">
-        <v>0.9686480635338935</v>
+        <v>0.9710886261196137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029889007448295</v>
+        <v>1.031029190363283</v>
       </c>
       <c r="J24">
-        <v>0.9850185736285926</v>
+        <v>0.9877449743546749</v>
       </c>
       <c r="K24">
-        <v>0.9983273117839673</v>
+        <v>1.000542041508948</v>
       </c>
       <c r="L24">
-        <v>0.9832490714687341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9856432210360105</v>
+      </c>
+      <c r="N24">
+        <v>0.9891476855141905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1157,28 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9715908706179704</v>
+        <v>0.9743846421505269</v>
       </c>
       <c r="D25">
-        <v>0.9961542209979035</v>
+        <v>0.9983730476025844</v>
       </c>
       <c r="E25">
-        <v>0.9818078282929215</v>
+        <v>0.9842072560427085</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035236507000502</v>
+        <v>1.036360407928682</v>
       </c>
       <c r="J25">
-        <v>0.9971136552777832</v>
+        <v>0.9998059229390888</v>
       </c>
       <c r="K25">
-        <v>1.00881253254311</v>
+        <v>1.010996672523294</v>
       </c>
       <c r="L25">
-        <v>0.994695275551716</v>
+        <v>0.9970557833125741</v>
+      </c>
+      <c r="N25">
+        <v>1.001225762029005</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9861605386250784</v>
+        <v>0.9861605386250822</v>
       </c>
       <c r="D2">
-        <v>1.007389425034842</v>
+        <v>1.007389425034845</v>
       </c>
       <c r="E2">
-        <v>0.9939972962951289</v>
+        <v>0.9939972962951324</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040266454967038</v>
+        <v>1.04026645496704</v>
       </c>
       <c r="J2">
-        <v>1.008763214670116</v>
+        <v>1.00876321467012</v>
       </c>
       <c r="K2">
-        <v>1.018746764481363</v>
+        <v>1.018746764481366</v>
       </c>
       <c r="L2">
-        <v>1.005540896666365</v>
+        <v>1.005540896666369</v>
       </c>
       <c r="N2">
-        <v>1.010195774141705</v>
+        <v>1.010195774141709</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,10 +456,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9942870237222461</v>
+        <v>0.9942870237222468</v>
       </c>
       <c r="D3">
-        <v>1.013615758930399</v>
+        <v>1.0136157589304</v>
       </c>
       <c r="E3">
         <v>1.000769133910431</v>
@@ -474,13 +474,13 @@
         <v>1.01493465117525</v>
       </c>
       <c r="K3">
-        <v>1.024077338047282</v>
+        <v>1.024077338047283</v>
       </c>
       <c r="L3">
         <v>1.011392182975098</v>
       </c>
       <c r="N3">
-        <v>1.01637597479455</v>
+        <v>1.016375974794551</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,10 +491,10 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9993688080234188</v>
+        <v>0.9993688080234197</v>
       </c>
       <c r="D4">
-        <v>1.017510170760902</v>
+        <v>1.017510170760903</v>
       </c>
       <c r="E4">
         <v>1.005010280676006</v>
@@ -506,7 +506,7 @@
         <v>1.044571244169179</v>
       </c>
       <c r="J4">
-        <v>1.01878867354886</v>
+        <v>1.018788673548861</v>
       </c>
       <c r="K4">
         <v>1.027401758821882</v>
@@ -515,7 +515,7 @@
         <v>1.015048609813458</v>
       </c>
       <c r="N4">
-        <v>1.020235470321994</v>
+        <v>1.020235470321995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001465504333112</v>
+        <v>1.001465504333114</v>
       </c>
       <c r="D5">
-        <v>1.019117029696168</v>
+        <v>1.019117029696169</v>
       </c>
       <c r="E5">
-        <v>1.006761581604647</v>
+        <v>1.006761581604649</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045245912878503</v>
+        <v>1.045245912878504</v>
       </c>
       <c r="J5">
-        <v>1.020377476399897</v>
+        <v>1.020377476399899</v>
       </c>
       <c r="K5">
-        <v>1.028771119987397</v>
+        <v>1.028771119987399</v>
       </c>
       <c r="L5">
-        <v>1.016556509160928</v>
+        <v>1.01655650916093</v>
       </c>
       <c r="N5">
-        <v>1.021826529455317</v>
+        <v>1.021826529455319</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,7 +561,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001815292455179</v>
+        <v>1.00181529245518</v>
       </c>
       <c r="D6">
         <v>1.019385098701196</v>
@@ -576,13 +576,13 @@
         <v>1.045358213372901</v>
       </c>
       <c r="J6">
-        <v>1.020642452987398</v>
+        <v>1.020642452987399</v>
       </c>
       <c r="K6">
-        <v>1.028999431880766</v>
+        <v>1.028999431880767</v>
       </c>
       <c r="L6">
-        <v>1.01680802532002</v>
+        <v>1.016808025320021</v>
       </c>
       <c r="N6">
         <v>1.022091882339966</v>
@@ -596,13 +596,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9993969768773142</v>
+        <v>0.9993969768773138</v>
       </c>
       <c r="D7">
         <v>1.017531758651992</v>
       </c>
       <c r="E7">
-        <v>1.005033803604471</v>
+        <v>1.00503380360447</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -611,16 +611,16 @@
         <v>1.044580325260982</v>
       </c>
       <c r="J7">
-        <v>1.018810024293192</v>
+        <v>1.018810024293191</v>
       </c>
       <c r="K7">
         <v>1.027420165124359</v>
       </c>
       <c r="L7">
-        <v>1.015068871166137</v>
+        <v>1.015068871166136</v>
       </c>
       <c r="N7">
-        <v>1.020256851386832</v>
+        <v>1.020256851386831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.988945128861744</v>
+        <v>0.9889451288617461</v>
       </c>
       <c r="D8">
-        <v>1.009522641338441</v>
+        <v>1.009522641338443</v>
       </c>
       <c r="E8">
-        <v>0.9963162677528522</v>
+        <v>0.9963162677528541</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041181290295354</v>
+        <v>1.041181290295355</v>
       </c>
       <c r="J8">
-        <v>1.010878942763025</v>
+        <v>1.010878942763027</v>
       </c>
       <c r="K8">
-        <v>1.020575149080146</v>
+        <v>1.020575149080147</v>
       </c>
       <c r="L8">
-        <v>1.007546369833733</v>
+        <v>1.007546369833735</v>
       </c>
       <c r="N8">
-        <v>1.012314506811184</v>
+        <v>1.012314506811186</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9690437284708434</v>
+        <v>0.9690437284708437</v>
       </c>
       <c r="D9">
-        <v>0.9942871587816283</v>
+        <v>0.9942871587816287</v>
       </c>
       <c r="E9">
-        <v>0.9797760761004237</v>
+        <v>0.9797760761004241</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034571145673794</v>
+        <v>1.034571145673795</v>
       </c>
       <c r="J9">
-        <v>0.9957390707587684</v>
+        <v>0.995739070758769</v>
       </c>
       <c r="K9">
-        <v>1.007473607883186</v>
+        <v>1.007473607883187</v>
       </c>
       <c r="L9">
-        <v>0.9932060219819232</v>
+        <v>0.9932060219819236</v>
       </c>
       <c r="N9">
-        <v>0.9971531344521137</v>
+        <v>0.9971531344521143</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,13 +701,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9545664785366282</v>
+        <v>0.9545664785366271</v>
       </c>
       <c r="D10">
-        <v>0.9832265236993855</v>
+        <v>0.9832265236993846</v>
       </c>
       <c r="E10">
-        <v>0.9677938675502138</v>
+        <v>0.967793867550213</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -716,16 +716,16 @@
         <v>1.02967506858888</v>
       </c>
       <c r="J10">
-        <v>0.984706324688006</v>
+        <v>0.984706324688005</v>
       </c>
       <c r="K10">
-        <v>0.9979053797287294</v>
+        <v>0.9979053797287282</v>
       </c>
       <c r="L10">
-        <v>0.9827700235785597</v>
+        <v>0.9827700235785588</v>
       </c>
       <c r="N10">
-        <v>0.9861047206164573</v>
+        <v>0.9861047206164563</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,13 +736,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9479531743626598</v>
+        <v>0.9479531743626601</v>
       </c>
       <c r="D11">
-        <v>0.9781825389088245</v>
+        <v>0.9781825389088249</v>
       </c>
       <c r="E11">
-        <v>0.9623347731563768</v>
+        <v>0.9623347731563769</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -751,16 +751,16 @@
         <v>1.027419469658206</v>
       </c>
       <c r="J11">
-        <v>0.9796637435503204</v>
+        <v>0.9796637435503207</v>
       </c>
       <c r="K11">
-        <v>0.9935279725801603</v>
+        <v>0.9935279725801608</v>
       </c>
       <c r="L11">
         <v>0.978003760465108</v>
       </c>
       <c r="N11">
-        <v>0.9810549784351639</v>
+        <v>0.9810549784351643</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9454390614810158</v>
+        <v>0.9454390614810144</v>
       </c>
       <c r="D12">
-        <v>0.9762666307257976</v>
+        <v>0.9762666307257963</v>
       </c>
       <c r="E12">
-        <v>0.9602618746299741</v>
+        <v>0.960261874629973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026559294263128</v>
+        <v>1.026559294263127</v>
       </c>
       <c r="J12">
-        <v>0.9777465251737514</v>
+        <v>0.9777465251737499</v>
       </c>
       <c r="K12">
-        <v>0.9918631013277612</v>
+        <v>0.99186310132776</v>
       </c>
       <c r="L12">
-        <v>0.9761921589304494</v>
+        <v>0.9761921589304483</v>
       </c>
       <c r="N12">
-        <v>0.9791350373885921</v>
+        <v>0.9791350373885905</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9459810601892322</v>
+        <v>0.9459810601892308</v>
       </c>
       <c r="D13">
-        <v>0.9766795886212225</v>
+        <v>0.9766795886212215</v>
       </c>
       <c r="E13">
-        <v>0.9607086411237595</v>
+        <v>0.9607086411237583</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026744851197789</v>
+        <v>1.026744851197788</v>
       </c>
       <c r="J13">
-        <v>0.9781598511310838</v>
+        <v>0.9781598511310826</v>
       </c>
       <c r="K13">
-        <v>0.9922220484977897</v>
+        <v>0.9922220484977887</v>
       </c>
       <c r="L13">
-        <v>0.9765826897228339</v>
+        <v>0.9765826897228329</v>
       </c>
       <c r="N13">
-        <v>0.9795489503161927</v>
+        <v>0.9795489503161919</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,13 +841,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9477465701546451</v>
+        <v>0.9477465701546446</v>
       </c>
       <c r="D14">
-        <v>0.9780250591798457</v>
+        <v>0.9780250591798455</v>
       </c>
       <c r="E14">
-        <v>0.9621643761481062</v>
+        <v>0.9621643761481056</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -856,16 +856,16 @@
         <v>1.027348835695255</v>
       </c>
       <c r="J14">
-        <v>0.9795061943581297</v>
+        <v>0.9795061943581291</v>
       </c>
       <c r="K14">
-        <v>0.9933911710446434</v>
+        <v>0.9933911710446431</v>
       </c>
       <c r="L14">
-        <v>0.977854878968894</v>
+        <v>0.9778548789688934</v>
       </c>
       <c r="N14">
-        <v>0.980897205505049</v>
+        <v>0.9808972055050484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,10 +876,10 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9488265297947628</v>
+        <v>0.9488265297947626</v>
       </c>
       <c r="D15">
-        <v>0.97884830322393</v>
+        <v>0.9788483032239301</v>
       </c>
       <c r="E15">
         <v>0.9630551740476186</v>
@@ -891,16 +891,16 @@
         <v>1.027717944977637</v>
       </c>
       <c r="J15">
-        <v>0.9803297258216519</v>
+        <v>0.9803297258216518</v>
       </c>
       <c r="K15">
-        <v>0.994106229544261</v>
+        <v>0.9941062295442611</v>
       </c>
       <c r="L15">
-        <v>0.978633126010678</v>
+        <v>0.9786331260106778</v>
       </c>
       <c r="N15">
-        <v>0.98172190647771</v>
+        <v>0.9817219064777094</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9549976422270441</v>
+        <v>0.9549976422270463</v>
       </c>
       <c r="D16">
-        <v>0.98355557639192</v>
+        <v>0.9835555763919219</v>
       </c>
       <c r="E16">
-        <v>0.968150099682424</v>
+        <v>0.968150099682426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029821747120906</v>
+        <v>1.029821747120907</v>
       </c>
       <c r="J16">
-        <v>0.9850350408461046</v>
+        <v>0.9850350408461066</v>
       </c>
       <c r="K16">
-        <v>0.9981906540661253</v>
+        <v>0.9981906540661271</v>
       </c>
       <c r="L16">
-        <v>0.9830808024945275</v>
+        <v>0.9830808024945294</v>
       </c>
       <c r="N16">
-        <v>0.9864339035892044</v>
+        <v>0.9864339035892065</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9587725092967047</v>
+        <v>0.9587725092967079</v>
       </c>
       <c r="D17">
-        <v>0.9864374527708637</v>
+        <v>0.9864374527708665</v>
       </c>
       <c r="E17">
-        <v>0.9712705859392177</v>
+        <v>0.9712705859392202</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03110380884763</v>
+        <v>1.031103808847631</v>
       </c>
       <c r="J17">
-        <v>0.9879126833665787</v>
+        <v>0.9879126833665817</v>
       </c>
       <c r="K17">
-        <v>1.000687536225162</v>
+        <v>1.000687536225165</v>
       </c>
       <c r="L17">
-        <v>0.9858018220898956</v>
+        <v>0.9858018220898984</v>
       </c>
       <c r="N17">
-        <v>0.9893156326921279</v>
+        <v>0.989315632692131</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,13 +981,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9609415228362422</v>
+        <v>0.9609415228362438</v>
       </c>
       <c r="D18">
-        <v>0.9880941391878585</v>
+        <v>0.9880941391878599</v>
       </c>
       <c r="E18">
-        <v>0.9730649289237131</v>
+        <v>0.9730649289237142</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -996,16 +996,16 @@
         <v>1.031838682426225</v>
       </c>
       <c r="J18">
-        <v>0.989565887973371</v>
+        <v>0.9895658879733724</v>
       </c>
       <c r="K18">
-        <v>1.002121597448686</v>
+        <v>1.002121597448687</v>
       </c>
       <c r="L18">
-        <v>0.9873653787248859</v>
+        <v>0.9873653787248872</v>
       </c>
       <c r="N18">
-        <v>0.9909711850390871</v>
+        <v>0.9909711850390887</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,13 +1016,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.961675699939268</v>
+        <v>0.9616756999392667</v>
       </c>
       <c r="D19">
-        <v>0.988655025006419</v>
+        <v>0.9886550250064178</v>
       </c>
       <c r="E19">
-        <v>0.9736725049111398</v>
+        <v>0.9736725049111384</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1031,16 +1031,16 @@
         <v>1.032087117133624</v>
       </c>
       <c r="J19">
-        <v>0.9901254211437446</v>
+        <v>0.9901254211437434</v>
       </c>
       <c r="K19">
-        <v>1.002606891408531</v>
+        <v>1.00260689140853</v>
       </c>
       <c r="L19">
-        <v>0.9878946258998663</v>
+        <v>0.9878946258998652</v>
       </c>
       <c r="N19">
-        <v>0.9915315128107419</v>
+        <v>0.9915315128107407</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9583709341646153</v>
+        <v>0.9583709341646168</v>
       </c>
       <c r="D20">
-        <v>0.9861307919038698</v>
+        <v>0.9861307919038713</v>
       </c>
       <c r="E20">
-        <v>0.9709384843622372</v>
+        <v>0.9709384843622386</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03096760662683</v>
+        <v>1.030967606626831</v>
       </c>
       <c r="J20">
-        <v>0.9876065829710512</v>
+        <v>0.9876065829710527</v>
       </c>
       <c r="K20">
-        <v>1.000421978823345</v>
+        <v>1.000421978823346</v>
       </c>
       <c r="L20">
-        <v>0.9855123473064316</v>
+        <v>0.9855123473064329</v>
       </c>
       <c r="N20">
-        <v>0.9890090975989286</v>
+        <v>0.98900909759893</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.947228314494695</v>
+        <v>0.9472283144946987</v>
       </c>
       <c r="D21">
-        <v>0.9776300567313821</v>
+        <v>0.9776300567313854</v>
       </c>
       <c r="E21">
-        <v>0.961736984293744</v>
+        <v>0.9617369842937471</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027171611625772</v>
+        <v>1.027171611625773</v>
       </c>
       <c r="J21">
-        <v>0.9791109875407268</v>
+        <v>0.9791109875407302</v>
       </c>
       <c r="K21">
-        <v>0.9930480003614508</v>
+        <v>0.9930480003614538</v>
       </c>
       <c r="L21">
-        <v>0.977481423838107</v>
+        <v>0.97748142383811</v>
       </c>
       <c r="N21">
-        <v>0.9805014374486346</v>
+        <v>0.9805014374486382</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9398853843080099</v>
+        <v>0.9398853843080092</v>
       </c>
       <c r="D22">
-        <v>0.9720377672468961</v>
+        <v>0.9720377672468954</v>
       </c>
       <c r="E22">
-        <v>0.9556876531356024</v>
+        <v>0.9556876531356018</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024654410747946</v>
+        <v>1.024654410747945</v>
       </c>
       <c r="J22">
-        <v>0.9735111857836524</v>
+        <v>0.9735111857836519</v>
       </c>
       <c r="K22">
-        <v>0.9881842862837918</v>
+        <v>0.9881842862837913</v>
       </c>
       <c r="L22">
-        <v>0.9721912010362271</v>
+        <v>0.9721912010362265</v>
       </c>
       <c r="N22">
-        <v>0.9748936833307589</v>
+        <v>0.9748936833307582</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1159,10 +1159,10 @@
         <v>0.9438121887670604</v>
       </c>
       <c r="D23">
-        <v>0.9750273528966257</v>
+        <v>0.9750273528966258</v>
       </c>
       <c r="E23">
-        <v>0.9589212308491566</v>
+        <v>0.9589212308491565</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1171,10 +1171,10 @@
         <v>1.026001943971163</v>
       </c>
       <c r="J23">
-        <v>0.9765058603520534</v>
+        <v>0.9765058603520536</v>
       </c>
       <c r="K23">
-        <v>0.9907855879593521</v>
+        <v>0.9907855879593522</v>
       </c>
       <c r="L23">
         <v>0.9750200014486607</v>
@@ -1191,13 +1191,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.958552489618138</v>
+        <v>0.9585524896181381</v>
       </c>
       <c r="D24">
-        <v>0.9862694334290613</v>
+        <v>0.9862694334290614</v>
       </c>
       <c r="E24">
-        <v>0.9710886261196137</v>
+        <v>0.9710886261196141</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1212,10 +1212,10 @@
         <v>1.000542041508948</v>
       </c>
       <c r="L24">
-        <v>0.9856432210360105</v>
+        <v>0.985643221036011</v>
       </c>
       <c r="N24">
-        <v>0.9891476855141905</v>
+        <v>0.9891476855141909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9743846421505269</v>
+        <v>0.9743846421505291</v>
       </c>
       <c r="D25">
-        <v>0.9983730476025844</v>
+        <v>0.9983730476025862</v>
       </c>
       <c r="E25">
-        <v>0.9842072560427085</v>
+        <v>0.9842072560427102</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036360407928682</v>
+        <v>1.036360407928683</v>
       </c>
       <c r="J25">
-        <v>0.9998059229390888</v>
+        <v>0.999805922939091</v>
       </c>
       <c r="K25">
-        <v>1.010996672523294</v>
+        <v>1.010996672523296</v>
       </c>
       <c r="L25">
-        <v>0.9970557833125741</v>
+        <v>0.9970557833125758</v>
       </c>
       <c r="N25">
-        <v>1.001225762029005</v>
+        <v>1.001225762029007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9861605386250822</v>
+        <v>1.014136673589037</v>
       </c>
       <c r="D2">
-        <v>1.007389425034845</v>
+        <v>1.031962933220208</v>
       </c>
       <c r="E2">
-        <v>0.9939972962951324</v>
+        <v>1.018526812155668</v>
+      </c>
+      <c r="F2">
+        <v>1.032873309072174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04026645496704</v>
+        <v>1.052195320416268</v>
       </c>
       <c r="J2">
-        <v>1.00876321467012</v>
+        <v>1.035902626743258</v>
       </c>
       <c r="K2">
-        <v>1.018746764481366</v>
+        <v>1.042994233438909</v>
       </c>
       <c r="L2">
-        <v>1.005540896666369</v>
+        <v>1.029733934741528</v>
+      </c>
+      <c r="M2">
+        <v>1.043892903217778</v>
       </c>
       <c r="N2">
-        <v>1.010195774141709</v>
+        <v>1.01547307245424</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9942870237222468</v>
+        <v>1.018980611107686</v>
       </c>
       <c r="D3">
-        <v>1.0136157589304</v>
+        <v>1.035769018602364</v>
       </c>
       <c r="E3">
-        <v>1.000769133910431</v>
+        <v>1.022439119116203</v>
+      </c>
+      <c r="F3">
+        <v>1.037594666341416</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042925710608658</v>
+        <v>1.054019031313251</v>
       </c>
       <c r="J3">
-        <v>1.01493465117525</v>
+        <v>1.038966887311359</v>
       </c>
       <c r="K3">
-        <v>1.024077338047283</v>
+        <v>1.045963803809514</v>
       </c>
       <c r="L3">
-        <v>1.011392182975098</v>
+        <v>1.032792717194711</v>
+      </c>
+      <c r="M3">
+        <v>1.047768093754536</v>
       </c>
       <c r="N3">
-        <v>1.016375974794551</v>
+        <v>1.016524968517419</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9993688080234197</v>
+        <v>1.022047289480771</v>
       </c>
       <c r="D4">
-        <v>1.017510170760903</v>
+        <v>1.03818134289017</v>
       </c>
       <c r="E4">
-        <v>1.005010280676006</v>
+        <v>1.024921633316725</v>
+      </c>
+      <c r="F4">
+        <v>1.040589803010682</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044571244169179</v>
+        <v>1.055163159514994</v>
       </c>
       <c r="J4">
-        <v>1.018788673548861</v>
+        <v>1.040903356497495</v>
       </c>
       <c r="K4">
-        <v>1.027401758821882</v>
+        <v>1.047839797672345</v>
       </c>
       <c r="L4">
-        <v>1.015048609813458</v>
+        <v>1.034728300270134</v>
+      </c>
+      <c r="M4">
+        <v>1.050221834756279</v>
       </c>
       <c r="N4">
-        <v>1.020235470321995</v>
+        <v>1.017189319772126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001465504333114</v>
+        <v>1.023320928037967</v>
       </c>
       <c r="D5">
-        <v>1.019117029696169</v>
+        <v>1.03918381771386</v>
       </c>
       <c r="E5">
-        <v>1.006761581604649</v>
+        <v>1.025953968302781</v>
+      </c>
+      <c r="F5">
+        <v>1.041835150430432</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045245912878504</v>
+        <v>1.055635785286494</v>
       </c>
       <c r="J5">
-        <v>1.020377476399899</v>
+        <v>1.041706725969759</v>
       </c>
       <c r="K5">
-        <v>1.028771119987399</v>
+        <v>1.048617919014768</v>
       </c>
       <c r="L5">
-        <v>1.01655650916093</v>
+        <v>1.035531918400733</v>
+      </c>
+      <c r="M5">
+        <v>1.051240961704787</v>
       </c>
       <c r="N5">
-        <v>1.021826529455319</v>
+        <v>1.01746483248165</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00181529245518</v>
+        <v>1.023533880248392</v>
       </c>
       <c r="D6">
-        <v>1.019385098701196</v>
+        <v>1.039351465218032</v>
       </c>
       <c r="E6">
-        <v>1.007053829955786</v>
+        <v>1.026126650218009</v>
+      </c>
+      <c r="F6">
+        <v>1.042043454974078</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045358213372901</v>
+        <v>1.055714657321244</v>
       </c>
       <c r="J6">
-        <v>1.020642452987399</v>
+        <v>1.041840996742475</v>
       </c>
       <c r="K6">
-        <v>1.028999431880767</v>
+        <v>1.048747960404813</v>
       </c>
       <c r="L6">
-        <v>1.016808025320021</v>
+        <v>1.035666266924065</v>
+      </c>
+      <c r="M6">
+        <v>1.051411361487224</v>
       </c>
       <c r="N6">
-        <v>1.022091882339966</v>
+        <v>1.01751087397444</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9993969768773138</v>
+        <v>1.022064368390013</v>
       </c>
       <c r="D7">
-        <v>1.017531758651992</v>
+        <v>1.038194783313237</v>
       </c>
       <c r="E7">
-        <v>1.00503380360447</v>
+        <v>1.024935471343942</v>
+      </c>
+      <c r="F7">
+        <v>1.04060649697607</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044580325260982</v>
+        <v>1.055169507330118</v>
       </c>
       <c r="J7">
-        <v>1.018810024293191</v>
+        <v>1.040914132820812</v>
       </c>
       <c r="K7">
-        <v>1.027420165124359</v>
+        <v>1.047850235957432</v>
       </c>
       <c r="L7">
-        <v>1.015068871166136</v>
+        <v>1.034739077494763</v>
+      </c>
+      <c r="M7">
+        <v>1.050235500631244</v>
       </c>
       <c r="N7">
-        <v>1.020256851386831</v>
+        <v>1.017193015886119</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9889451288617461</v>
+        <v>1.015788093761775</v>
       </c>
       <c r="D8">
-        <v>1.009522641338443</v>
+        <v>1.03325992447048</v>
       </c>
       <c r="E8">
-        <v>0.9963162677528541</v>
+        <v>1.019859401782559</v>
+      </c>
+      <c r="F8">
+        <v>1.034481644891266</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041181290295355</v>
+        <v>1.052819239450028</v>
       </c>
       <c r="J8">
-        <v>1.010878942763027</v>
+        <v>1.036948023284439</v>
       </c>
       <c r="K8">
-        <v>1.020575149080147</v>
+        <v>1.044007455091909</v>
       </c>
       <c r="L8">
-        <v>1.007546369833735</v>
+        <v>1.030776919923099</v>
+      </c>
+      <c r="M8">
+        <v>1.045213950770129</v>
       </c>
       <c r="N8">
-        <v>1.012314506811186</v>
+        <v>1.015832014563788</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9690437284708437</v>
+        <v>1.004181118003869</v>
       </c>
       <c r="D9">
-        <v>0.9942871587816287</v>
+        <v>1.024157717753335</v>
       </c>
       <c r="E9">
-        <v>0.9797760761004241</v>
+        <v>1.010519370054532</v>
+      </c>
+      <c r="F9">
+        <v>1.023204769113881</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034571145673795</v>
+        <v>1.048391210404441</v>
       </c>
       <c r="J9">
-        <v>0.995739070758769</v>
+        <v>1.029587089265662</v>
       </c>
       <c r="K9">
-        <v>1.007473607883187</v>
+        <v>1.036870645230227</v>
       </c>
       <c r="L9">
-        <v>0.9932060219819236</v>
+        <v>1.023444052577344</v>
+      </c>
+      <c r="M9">
+        <v>1.03593225849492</v>
       </c>
       <c r="N9">
-        <v>0.9971531344521143</v>
+        <v>1.013303180238451</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9545664785366271</v>
+        <v>0.9960315216742635</v>
       </c>
       <c r="D10">
-        <v>0.9832265236993846</v>
+        <v>1.017786730901493</v>
       </c>
       <c r="E10">
-        <v>0.967793867550213</v>
+        <v>1.003997009238533</v>
+      </c>
+      <c r="F10">
+        <v>1.015323455452746</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02967506858888</v>
+        <v>1.04522954115833</v>
       </c>
       <c r="J10">
-        <v>0.984706324688005</v>
+        <v>1.024403480604285</v>
       </c>
       <c r="K10">
-        <v>0.9979053797287282</v>
+        <v>1.031842098789895</v>
       </c>
       <c r="L10">
-        <v>0.9827700235785588</v>
+        <v>1.018294469522191</v>
+      </c>
+      <c r="M10">
+        <v>1.029421444255634</v>
       </c>
       <c r="N10">
-        <v>0.9861047206164563</v>
+        <v>1.011520860191141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9479531743626601</v>
+        <v>0.9923943658271918</v>
       </c>
       <c r="D11">
-        <v>0.9781825389088249</v>
+        <v>1.014948971401948</v>
       </c>
       <c r="E11">
-        <v>0.9623347731563769</v>
+        <v>1.001095352972178</v>
+      </c>
+      <c r="F11">
+        <v>1.011815325921363</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027419469658206</v>
+        <v>1.043806628382377</v>
       </c>
       <c r="J11">
-        <v>0.9796637435503207</v>
+        <v>1.022087007087779</v>
       </c>
       <c r="K11">
-        <v>0.9935279725801608</v>
+        <v>1.029594373056376</v>
       </c>
       <c r="L11">
-        <v>0.978003760465108</v>
+        <v>1.015996642061659</v>
+      </c>
+      <c r="M11">
+        <v>1.026517810096072</v>
       </c>
       <c r="N11">
-        <v>0.9810549784351643</v>
+        <v>1.010724114349658</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9454390614810144</v>
+        <v>0.9910260993076131</v>
       </c>
       <c r="D12">
-        <v>0.9762666307257963</v>
+        <v>1.0138823521348</v>
       </c>
       <c r="E12">
-        <v>0.960261874629973</v>
+        <v>1.000005242686214</v>
+      </c>
+      <c r="F12">
+        <v>1.010497051741472</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026559294263127</v>
+        <v>1.043269614238792</v>
       </c>
       <c r="J12">
-        <v>0.9777465251737499</v>
+        <v>1.021215167096778</v>
       </c>
       <c r="K12">
-        <v>0.99186310132776</v>
+        <v>1.028748334973679</v>
       </c>
       <c r="L12">
-        <v>0.9761921589304483</v>
+        <v>1.015132342255135</v>
+      </c>
+      <c r="M12">
+        <v>1.025425870638383</v>
       </c>
       <c r="N12">
-        <v>0.9791350373885905</v>
+        <v>1.010424217475779</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9459810601892308</v>
+        <v>0.9913203951403944</v>
       </c>
       <c r="D13">
-        <v>0.9766795886212215</v>
+        <v>1.014111724738319</v>
       </c>
       <c r="E13">
-        <v>0.9607086411237583</v>
+        <v>1.000239643271276</v>
+      </c>
+      <c r="F13">
+        <v>1.010780528249719</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026744851197788</v>
+        <v>1.043385195878294</v>
       </c>
       <c r="J13">
-        <v>0.9781598511310826</v>
+        <v>1.021402705528649</v>
       </c>
       <c r="K13">
-        <v>0.9922220484977887</v>
+        <v>1.028930326353158</v>
       </c>
       <c r="L13">
-        <v>0.9765826897228329</v>
+        <v>1.015318235048829</v>
+      </c>
+      <c r="M13">
+        <v>1.025660713900705</v>
       </c>
       <c r="N13">
-        <v>0.9795489503161919</v>
+        <v>1.010488728423873</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9477465701546446</v>
+        <v>0.992281622686823</v>
       </c>
       <c r="D14">
-        <v>0.9780250591798455</v>
+        <v>1.014861064357831</v>
       </c>
       <c r="E14">
-        <v>0.9621643761481056</v>
+        <v>1.001005499222353</v>
+      </c>
+      <c r="F14">
+        <v>1.01170667219091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027348835695255</v>
+        <v>1.043762413963713</v>
       </c>
       <c r="J14">
-        <v>0.9795061943581291</v>
+        <v>1.022015176626267</v>
       </c>
       <c r="K14">
-        <v>0.9933911710446431</v>
+        <v>1.029524669812852</v>
       </c>
       <c r="L14">
-        <v>0.9778548789688934</v>
+        <v>1.015925422183805</v>
+      </c>
+      <c r="M14">
+        <v>1.02642782775495</v>
       </c>
       <c r="N14">
-        <v>0.9808972055050484</v>
+        <v>1.010699406543075</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9488265297947626</v>
+        <v>0.9928715480186158</v>
       </c>
       <c r="D15">
-        <v>0.9788483032239301</v>
+        <v>1.015321073528951</v>
       </c>
       <c r="E15">
-        <v>0.9630551740476186</v>
+        <v>1.001475716716681</v>
+      </c>
+      <c r="F15">
+        <v>1.012275259384672</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027717944977637</v>
+        <v>1.043993694660151</v>
       </c>
       <c r="J15">
-        <v>0.9803297258216518</v>
+        <v>1.022391011424365</v>
       </c>
       <c r="K15">
-        <v>0.9941062295442611</v>
+        <v>1.02988937159052</v>
       </c>
       <c r="L15">
-        <v>0.9786331260106778</v>
+        <v>1.016298083574535</v>
+      </c>
+      <c r="M15">
+        <v>1.026898673804716</v>
       </c>
       <c r="N15">
-        <v>0.9817219064777094</v>
+        <v>1.010828682770266</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9549976422270463</v>
+        <v>0.9962705426381664</v>
       </c>
       <c r="D16">
-        <v>0.9835555763919219</v>
+        <v>1.017973341620363</v>
       </c>
       <c r="E16">
-        <v>0.968150099682426</v>
+        <v>1.004187894928069</v>
+      </c>
+      <c r="F16">
+        <v>1.015554195462875</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029821747120907</v>
+        <v>1.045322807628134</v>
       </c>
       <c r="J16">
-        <v>0.9850350408461066</v>
+        <v>1.024555652272767</v>
       </c>
       <c r="K16">
-        <v>0.9981906540661271</v>
+        <v>1.031989743776165</v>
       </c>
       <c r="L16">
-        <v>0.9830808024945294</v>
+        <v>1.018445488348674</v>
+      </c>
+      <c r="M16">
+        <v>1.029612310348551</v>
       </c>
       <c r="N16">
-        <v>0.9864339035892065</v>
+        <v>1.011573194727843</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9587725092967079</v>
+        <v>0.9983729647771881</v>
       </c>
       <c r="D17">
-        <v>0.9864374527708665</v>
+        <v>1.019615411007664</v>
       </c>
       <c r="E17">
-        <v>0.9712705859392202</v>
+        <v>1.005867982659715</v>
+      </c>
+      <c r="F17">
+        <v>1.017584841584496</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031103808847631</v>
+        <v>1.046141834802043</v>
       </c>
       <c r="J17">
-        <v>0.9879126833665817</v>
+        <v>1.02589381145328</v>
       </c>
       <c r="K17">
-        <v>1.000687536225165</v>
+        <v>1.033288035440533</v>
       </c>
       <c r="L17">
-        <v>0.9858018220898984</v>
+        <v>1.019773901249566</v>
+      </c>
+      <c r="M17">
+        <v>1.031291413367051</v>
       </c>
       <c r="N17">
-        <v>0.989315632692131</v>
+        <v>1.012033383502908</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9609415228362438</v>
+        <v>0.9995888908765909</v>
       </c>
       <c r="D18">
-        <v>0.9880941391878599</v>
+        <v>1.020565619894135</v>
       </c>
       <c r="E18">
-        <v>0.9730649289237142</v>
+        <v>1.00684052645295</v>
+      </c>
+      <c r="F18">
+        <v>1.018760132849435</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031838682426225</v>
+        <v>1.046614387461292</v>
       </c>
       <c r="J18">
-        <v>0.9895658879733724</v>
+        <v>1.02666743842092</v>
       </c>
       <c r="K18">
-        <v>1.002121597448687</v>
+        <v>1.034038561417264</v>
       </c>
       <c r="L18">
-        <v>0.9873653787248872</v>
+        <v>1.020542219000915</v>
+      </c>
+      <c r="M18">
+        <v>1.032262712877733</v>
       </c>
       <c r="N18">
-        <v>0.9909711850390887</v>
+        <v>1.012299406679257</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9616756999392667</v>
+        <v>1.000001758251721</v>
       </c>
       <c r="D19">
-        <v>0.9886550250064178</v>
+        <v>1.020888349945694</v>
       </c>
       <c r="E19">
-        <v>0.9736725049111384</v>
+        <v>1.007170899313585</v>
+      </c>
+      <c r="F19">
+        <v>1.019159349697893</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032087117133624</v>
+        <v>1.046774649652058</v>
       </c>
       <c r="J19">
-        <v>0.9901254211437434</v>
+        <v>1.026930072314611</v>
       </c>
       <c r="K19">
-        <v>1.00260689140853</v>
+        <v>1.034293343711824</v>
       </c>
       <c r="L19">
-        <v>0.9878946258998652</v>
+        <v>1.02080310553789</v>
+      </c>
+      <c r="M19">
+        <v>1.032592549179015</v>
       </c>
       <c r="N19">
-        <v>0.9915315128107407</v>
+        <v>1.012389712809369</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9583709341646168</v>
+        <v>0.9981484754619303</v>
       </c>
       <c r="D20">
-        <v>0.9861307919038713</v>
+        <v>1.019440021457166</v>
       </c>
       <c r="E20">
-        <v>0.9709384843622386</v>
+        <v>1.005688497640941</v>
+      </c>
+      <c r="F20">
+        <v>1.017367924907091</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030967606626831</v>
+        <v>1.046054498593463</v>
       </c>
       <c r="J20">
-        <v>0.9876065829710527</v>
+        <v>1.02575095732453</v>
       </c>
       <c r="K20">
-        <v>1.000421978823346</v>
+        <v>1.033149442715038</v>
       </c>
       <c r="L20">
-        <v>0.9855123473064329</v>
+        <v>1.019632053768651</v>
+      </c>
+      <c r="M20">
+        <v>1.031112103612325</v>
       </c>
       <c r="N20">
-        <v>0.98900909759893</v>
+        <v>1.011984258917571</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9472283144946987</v>
+        <v>0.9919990500675654</v>
       </c>
       <c r="D21">
-        <v>0.9776300567313854</v>
+        <v>1.014640754549399</v>
       </c>
       <c r="E21">
-        <v>0.9617369842937471</v>
+        <v>1.000780319094653</v>
+      </c>
+      <c r="F21">
+        <v>1.011434372638057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027171611625773</v>
+        <v>1.043651569993493</v>
       </c>
       <c r="J21">
-        <v>0.9791109875407302</v>
+        <v>1.021835138782608</v>
       </c>
       <c r="K21">
-        <v>0.9930480003614538</v>
+        <v>1.029349962555959</v>
       </c>
       <c r="L21">
-        <v>0.97748142383811</v>
+        <v>1.015746923156895</v>
+      </c>
+      <c r="M21">
+        <v>1.026202307810553</v>
       </c>
       <c r="N21">
-        <v>0.9805014374486382</v>
+        <v>1.010637477773147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9398853843080092</v>
+        <v>0.9880322247470573</v>
       </c>
       <c r="D22">
-        <v>0.9720377672468954</v>
+        <v>1.011550291774262</v>
       </c>
       <c r="E22">
-        <v>0.9556876531356018</v>
+        <v>0.9976227831265659</v>
+      </c>
+      <c r="F22">
+        <v>1.007615305917097</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024654410747945</v>
+        <v>1.042091472615433</v>
       </c>
       <c r="J22">
-        <v>0.9735111857836519</v>
+        <v>1.01930683319148</v>
       </c>
       <c r="K22">
-        <v>0.9881842862837913</v>
+        <v>1.026896355959657</v>
       </c>
       <c r="L22">
-        <v>0.9721912010362265</v>
+        <v>1.013241480703091</v>
+      </c>
+      <c r="M22">
+        <v>1.02303739673128</v>
       </c>
       <c r="N22">
-        <v>0.9748936833307582</v>
+        <v>1.009767741538205</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9438121887670604</v>
+        <v>0.9901449854465039</v>
       </c>
       <c r="D23">
-        <v>0.9750273528966258</v>
+        <v>1.01319575804574</v>
       </c>
       <c r="E23">
-        <v>0.9589212308491565</v>
+        <v>0.9993036747373785</v>
+      </c>
+      <c r="F23">
+        <v>1.009648548350392</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026001943971163</v>
+        <v>1.042923317295063</v>
       </c>
       <c r="J23">
-        <v>0.9765058603520536</v>
+        <v>1.020653627277097</v>
       </c>
       <c r="K23">
-        <v>0.9907855879593522</v>
+        <v>1.028203394681202</v>
       </c>
       <c r="L23">
-        <v>0.9750200014486607</v>
+        <v>1.014575806939404</v>
+      </c>
+      <c r="M23">
+        <v>1.024722817211619</v>
       </c>
       <c r="N23">
-        <v>0.9778926106805411</v>
+        <v>1.010231050954433</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9585524896181381</v>
+        <v>0.9982499445287415</v>
       </c>
       <c r="D24">
-        <v>0.9862694334290614</v>
+        <v>1.019519295828649</v>
       </c>
       <c r="E24">
-        <v>0.9710886261196141</v>
+        <v>1.005769622085205</v>
+      </c>
+      <c r="F24">
+        <v>1.017465968431099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031029190363283</v>
+        <v>1.046093978021651</v>
       </c>
       <c r="J24">
-        <v>0.9877449743546749</v>
+        <v>1.025815528231838</v>
       </c>
       <c r="K24">
-        <v>1.000542041508948</v>
+        <v>1.033212087606488</v>
       </c>
       <c r="L24">
-        <v>0.985643221036011</v>
+        <v>1.019696168656343</v>
+      </c>
+      <c r="M24">
+        <v>1.03119315092902</v>
       </c>
       <c r="N24">
-        <v>0.9891476855141909</v>
+        <v>1.012006463596757</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9743846421505291</v>
+        <v>1.007250964358209</v>
       </c>
       <c r="D25">
-        <v>0.9983730476025862</v>
+        <v>1.026561938787681</v>
       </c>
       <c r="E25">
-        <v>0.9842072560427102</v>
+        <v>1.012983792764864</v>
+      </c>
+      <c r="F25">
+        <v>1.026181224137415</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036360407928683</v>
+        <v>1.049571596219528</v>
       </c>
       <c r="J25">
-        <v>0.999805922939091</v>
+        <v>1.031536744663928</v>
       </c>
       <c r="K25">
-        <v>1.010996672523296</v>
+        <v>1.038761447668304</v>
       </c>
       <c r="L25">
-        <v>0.9970557833125758</v>
+        <v>1.025383841001484</v>
+      </c>
+      <c r="M25">
+        <v>1.038386264187166</v>
       </c>
       <c r="N25">
-        <v>1.001225762029007</v>
+        <v>1.013973270818543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014136673589037</v>
+        <v>1.039937150655295</v>
       </c>
       <c r="D2">
-        <v>1.031962933220208</v>
+        <v>1.046812387593398</v>
       </c>
       <c r="E2">
-        <v>1.018526812155668</v>
+        <v>1.038392989847484</v>
       </c>
       <c r="F2">
-        <v>1.032873309072174</v>
+        <v>1.055606551737749</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052195320416268</v>
+        <v>1.042818648575959</v>
       </c>
       <c r="J2">
-        <v>1.035902626743258</v>
+        <v>1.045026465710855</v>
       </c>
       <c r="K2">
-        <v>1.042994233438909</v>
+        <v>1.049576775548565</v>
       </c>
       <c r="L2">
-        <v>1.029733934741528</v>
+        <v>1.041181151534735</v>
       </c>
       <c r="M2">
-        <v>1.043892903217778</v>
+        <v>1.058346546582373</v>
       </c>
       <c r="N2">
-        <v>1.01547307245424</v>
+        <v>1.01887697790105</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018980611107686</v>
+        <v>1.040940573279948</v>
       </c>
       <c r="D3">
-        <v>1.035769018602364</v>
+        <v>1.047621291418033</v>
       </c>
       <c r="E3">
-        <v>1.022439119116203</v>
+        <v>1.03924835236977</v>
       </c>
       <c r="F3">
-        <v>1.037594666341416</v>
+        <v>1.056648411584039</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054019031313251</v>
+        <v>1.043127613897949</v>
       </c>
       <c r="J3">
-        <v>1.038966887311359</v>
+        <v>1.045675030215433</v>
       </c>
       <c r="K3">
-        <v>1.045963803809514</v>
+        <v>1.050197404736704</v>
       </c>
       <c r="L3">
-        <v>1.032792717194711</v>
+        <v>1.041846398266942</v>
       </c>
       <c r="M3">
-        <v>1.047768093754536</v>
+        <v>1.059201298722806</v>
       </c>
       <c r="N3">
-        <v>1.016524968517419</v>
+        <v>1.019096675242671</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022047289480771</v>
+        <v>1.041590044616103</v>
       </c>
       <c r="D4">
-        <v>1.03818134289017</v>
+        <v>1.048144855207556</v>
       </c>
       <c r="E4">
-        <v>1.024921633316725</v>
+        <v>1.039802334546926</v>
       </c>
       <c r="F4">
-        <v>1.040589803010682</v>
+        <v>1.057323224069737</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055163159514994</v>
+        <v>1.043326297892945</v>
       </c>
       <c r="J4">
-        <v>1.040903356497495</v>
+        <v>1.046094286002377</v>
       </c>
       <c r="K4">
-        <v>1.047839797672345</v>
+        <v>1.050598489875214</v>
       </c>
       <c r="L4">
-        <v>1.034728300270134</v>
+        <v>1.042276721408399</v>
       </c>
       <c r="M4">
-        <v>1.050221834756279</v>
+        <v>1.059754434157812</v>
       </c>
       <c r="N4">
-        <v>1.017189319772126</v>
+        <v>1.019238589531461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023320928037967</v>
+        <v>1.041863127463902</v>
       </c>
       <c r="D5">
-        <v>1.03918381771386</v>
+        <v>1.04836499624163</v>
       </c>
       <c r="E5">
-        <v>1.025953968302781</v>
+        <v>1.04003534879677</v>
       </c>
       <c r="F5">
-        <v>1.041835150430432</v>
+        <v>1.057607072439084</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055635785286494</v>
+        <v>1.043409528105613</v>
       </c>
       <c r="J5">
-        <v>1.041706725969759</v>
+        <v>1.046270442726439</v>
       </c>
       <c r="K5">
-        <v>1.048617919014768</v>
+        <v>1.050766984965777</v>
       </c>
       <c r="L5">
-        <v>1.035531918400733</v>
+        <v>1.042457596078851</v>
       </c>
       <c r="M5">
-        <v>1.051240961704787</v>
+        <v>1.059986984504921</v>
       </c>
       <c r="N5">
-        <v>1.01746483248165</v>
+        <v>1.019298191477467</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023533880248392</v>
+        <v>1.041908981910442</v>
       </c>
       <c r="D6">
-        <v>1.039351465218032</v>
+        <v>1.048401960907313</v>
       </c>
       <c r="E6">
-        <v>1.026126650218009</v>
+        <v>1.040074479934923</v>
       </c>
       <c r="F6">
-        <v>1.042043454974078</v>
+        <v>1.057654741027757</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055714657321244</v>
+        <v>1.043423485425415</v>
       </c>
       <c r="J6">
-        <v>1.041840996742475</v>
+        <v>1.046300014429214</v>
       </c>
       <c r="K6">
-        <v>1.048747960404813</v>
+        <v>1.050795268914738</v>
       </c>
       <c r="L6">
-        <v>1.035666266924065</v>
+        <v>1.042487963768185</v>
       </c>
       <c r="M6">
-        <v>1.051411361487224</v>
+        <v>1.060026031429157</v>
       </c>
       <c r="N6">
-        <v>1.01751087397444</v>
+        <v>1.0193081954494</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022064368390013</v>
+        <v>1.04159369338569</v>
       </c>
       <c r="D7">
-        <v>1.038194783313237</v>
+        <v>1.048147796607068</v>
       </c>
       <c r="E7">
-        <v>1.024935471343942</v>
+        <v>1.039805447623733</v>
       </c>
       <c r="F7">
-        <v>1.04060649697607</v>
+        <v>1.057327016248702</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055169507330118</v>
+        <v>1.043327411184741</v>
       </c>
       <c r="J7">
-        <v>1.040914132820812</v>
+        <v>1.046096640204494</v>
       </c>
       <c r="K7">
-        <v>1.047850235957432</v>
+        <v>1.050600741791426</v>
       </c>
       <c r="L7">
-        <v>1.034739077494763</v>
+        <v>1.042279138395747</v>
       </c>
       <c r="M7">
-        <v>1.050235500631244</v>
+        <v>1.059757541459741</v>
       </c>
       <c r="N7">
-        <v>1.017193015886119</v>
+        <v>1.019239386167041</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015788093761775</v>
+        <v>1.040276222524034</v>
       </c>
       <c r="D8">
-        <v>1.03325992447048</v>
+        <v>1.047085729089764</v>
       </c>
       <c r="E8">
-        <v>1.019859401782559</v>
+        <v>1.038681958448441</v>
       </c>
       <c r="F8">
-        <v>1.034481644891266</v>
+        <v>1.055958516185109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052819239450028</v>
+        <v>1.042923320822276</v>
       </c>
       <c r="J8">
-        <v>1.036948023284439</v>
+        <v>1.045245735446423</v>
       </c>
       <c r="K8">
-        <v>1.044007455091909</v>
+        <v>1.049786623984208</v>
       </c>
       <c r="L8">
-        <v>1.030776919923099</v>
+        <v>1.04140600256197</v>
       </c>
       <c r="M8">
-        <v>1.045213950770129</v>
+        <v>1.058635402582127</v>
       </c>
       <c r="N8">
-        <v>1.015832014563788</v>
+        <v>1.018951276127711</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004181118003869</v>
+        <v>1.037956138961661</v>
       </c>
       <c r="D9">
-        <v>1.024157717753335</v>
+        <v>1.045215407713618</v>
       </c>
       <c r="E9">
-        <v>1.010519370054532</v>
+        <v>1.036706135653237</v>
       </c>
       <c r="F9">
-        <v>1.023204769113881</v>
+        <v>1.053552125203994</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048391210404441</v>
+        <v>1.042201801364797</v>
       </c>
       <c r="J9">
-        <v>1.029587089265662</v>
+        <v>1.043743225041874</v>
       </c>
       <c r="K9">
-        <v>1.036870645230227</v>
+        <v>1.048348213819018</v>
       </c>
       <c r="L9">
-        <v>1.023444052577344</v>
+        <v>1.039866411645006</v>
       </c>
       <c r="M9">
-        <v>1.03593225849492</v>
+        <v>1.056658489072966</v>
       </c>
       <c r="N9">
-        <v>1.013303180238451</v>
+        <v>1.018441727972343</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9960315216742635</v>
+        <v>1.036410421379529</v>
       </c>
       <c r="D10">
-        <v>1.017786730901493</v>
+        <v>1.043969366301383</v>
       </c>
       <c r="E10">
-        <v>1.003997009238533</v>
+        <v>1.035391597784208</v>
       </c>
       <c r="F10">
-        <v>1.015323455452746</v>
+        <v>1.051951319141666</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04522954115833</v>
+        <v>1.041714446985552</v>
       </c>
       <c r="J10">
-        <v>1.024403480604285</v>
+        <v>1.042739492365254</v>
       </c>
       <c r="K10">
-        <v>1.031842098789895</v>
+        <v>1.047386730841797</v>
       </c>
       <c r="L10">
-        <v>1.018294469522191</v>
+        <v>1.03883937151727</v>
       </c>
       <c r="M10">
-        <v>1.029421444255634</v>
+        <v>1.055340877168222</v>
       </c>
       <c r="N10">
-        <v>1.011520860191141</v>
+        <v>1.018100793036874</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9923943658271918</v>
+        <v>1.035741349823453</v>
       </c>
       <c r="D11">
-        <v>1.014948971401948</v>
+        <v>1.04343002535695</v>
       </c>
       <c r="E11">
-        <v>1.001095352972178</v>
+        <v>1.034823033335641</v>
       </c>
       <c r="F11">
-        <v>1.011815325921363</v>
+        <v>1.051258979268272</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043806628382377</v>
+        <v>1.041501916816326</v>
       </c>
       <c r="J11">
-        <v>1.022087007087779</v>
+        <v>1.042304382531593</v>
       </c>
       <c r="K11">
-        <v>1.029594373056376</v>
+        <v>1.046969801367011</v>
       </c>
       <c r="L11">
-        <v>1.015996642061659</v>
+        <v>1.038394505593305</v>
       </c>
       <c r="M11">
-        <v>1.026517810096072</v>
+        <v>1.054770421953857</v>
       </c>
       <c r="N11">
-        <v>1.010724114349658</v>
+        <v>1.017952874329185</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9910260993076131</v>
+        <v>1.035492862201408</v>
       </c>
       <c r="D12">
-        <v>1.0138823521348</v>
+        <v>1.043229721361946</v>
       </c>
       <c r="E12">
-        <v>1.000005242686214</v>
+        <v>1.034611939951747</v>
       </c>
       <c r="F12">
-        <v>1.010497051741472</v>
+        <v>1.051001937088244</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043269614238792</v>
+        <v>1.041422748160897</v>
       </c>
       <c r="J12">
-        <v>1.021215167096778</v>
+        <v>1.042142690613023</v>
       </c>
       <c r="K12">
-        <v>1.028748334973679</v>
+        <v>1.046814845354257</v>
       </c>
       <c r="L12">
-        <v>1.015132342255135</v>
+        <v>1.038229240440537</v>
       </c>
       <c r="M12">
-        <v>1.025425870638383</v>
+        <v>1.054558541904951</v>
       </c>
       <c r="N12">
-        <v>1.010424217475779</v>
+        <v>1.017897887147216</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9913203951403944</v>
+        <v>1.03554616203824</v>
       </c>
       <c r="D13">
-        <v>1.014111724738319</v>
+        <v>1.043272685823386</v>
       </c>
       <c r="E13">
-        <v>1.000239643271276</v>
+        <v>1.03465721580824</v>
       </c>
       <c r="F13">
-        <v>1.010780528249719</v>
+        <v>1.051057067903428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043385195878294</v>
+        <v>1.041439740306038</v>
       </c>
       <c r="J13">
-        <v>1.021402705528649</v>
+        <v>1.042177377364109</v>
       </c>
       <c r="K13">
-        <v>1.028930326353158</v>
+        <v>1.046848088003284</v>
       </c>
       <c r="L13">
-        <v>1.015318235048829</v>
+        <v>1.038264691370528</v>
       </c>
       <c r="M13">
-        <v>1.025660713900705</v>
+        <v>1.054603990325006</v>
       </c>
       <c r="N13">
-        <v>1.010488728423873</v>
+        <v>1.017909684053213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.992281622686823</v>
+        <v>1.03572080903729</v>
       </c>
       <c r="D14">
-        <v>1.014861064357831</v>
+        <v>1.043413467524689</v>
       </c>
       <c r="E14">
-        <v>1.001005499222353</v>
+        <v>1.034805582312327</v>
       </c>
       <c r="F14">
-        <v>1.01170667219091</v>
+        <v>1.051237729555514</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043762413963713</v>
+        <v>1.041495377309014</v>
       </c>
       <c r="J14">
-        <v>1.022015176626267</v>
+        <v>1.042291018508942</v>
       </c>
       <c r="K14">
-        <v>1.029524669812852</v>
+        <v>1.046956994484791</v>
       </c>
       <c r="L14">
-        <v>1.015925422183805</v>
+        <v>1.038380845172933</v>
       </c>
       <c r="M14">
-        <v>1.02642782775495</v>
+        <v>1.054752907626808</v>
       </c>
       <c r="N14">
-        <v>1.010699406543075</v>
+        <v>1.017948329959439</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9928715480186158</v>
+        <v>1.035828419505057</v>
       </c>
       <c r="D15">
-        <v>1.015321073528951</v>
+        <v>1.043500211939054</v>
       </c>
       <c r="E15">
-        <v>1.001475716716681</v>
+        <v>1.0348970086572</v>
       </c>
       <c r="F15">
-        <v>1.012275259384672</v>
+        <v>1.051349057565819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043993694660151</v>
+        <v>1.041529627230926</v>
       </c>
       <c r="J15">
-        <v>1.022391011424365</v>
+        <v>1.042361026940631</v>
       </c>
       <c r="K15">
-        <v>1.02988937159052</v>
+        <v>1.047024083471009</v>
       </c>
       <c r="L15">
-        <v>1.016298083574535</v>
+        <v>1.038452408445561</v>
       </c>
       <c r="M15">
-        <v>1.026898673804716</v>
+        <v>1.054844662151234</v>
       </c>
       <c r="N15">
-        <v>1.010828682770266</v>
+        <v>1.017972135208704</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9962705426381664</v>
+        <v>1.036454830404214</v>
       </c>
       <c r="D16">
-        <v>1.017973341620363</v>
+        <v>1.044005164926093</v>
       </c>
       <c r="E16">
-        <v>1.004187894928069</v>
+        <v>1.035429345063454</v>
       </c>
       <c r="F16">
-        <v>1.015554195462875</v>
+        <v>1.051997284773891</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045322807628134</v>
+        <v>1.041728520277873</v>
       </c>
       <c r="J16">
-        <v>1.024555652272767</v>
+        <v>1.042768358946936</v>
       </c>
       <c r="K16">
-        <v>1.031989743776165</v>
+        <v>1.047414388454031</v>
       </c>
       <c r="L16">
-        <v>1.018445488348674</v>
+        <v>1.038868892670509</v>
       </c>
       <c r="M16">
-        <v>1.029612310348551</v>
+        <v>1.055378738116837</v>
       </c>
       <c r="N16">
-        <v>1.011573194727843</v>
+        <v>1.018110603789337</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9983729647771881</v>
+        <v>1.03684782424977</v>
       </c>
       <c r="D17">
-        <v>1.019615411007664</v>
+        <v>1.044321963504683</v>
       </c>
       <c r="E17">
-        <v>1.005867982659715</v>
+        <v>1.035763437265498</v>
       </c>
       <c r="F17">
-        <v>1.017584841584496</v>
+        <v>1.052404120404794</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046141834802043</v>
+        <v>1.041852878541551</v>
       </c>
       <c r="J17">
-        <v>1.02589381145328</v>
+        <v>1.043023737466784</v>
       </c>
       <c r="K17">
-        <v>1.033288035440533</v>
+        <v>1.047659055871626</v>
       </c>
       <c r="L17">
-        <v>1.019773901249566</v>
+        <v>1.039130102216052</v>
       </c>
       <c r="M17">
-        <v>1.031291413367051</v>
+        <v>1.055713771467447</v>
       </c>
       <c r="N17">
-        <v>1.012033383502908</v>
+        <v>1.01819738355361</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9995888908765909</v>
+        <v>1.03707707351378</v>
       </c>
       <c r="D18">
-        <v>1.020565619894135</v>
+        <v>1.044506766314553</v>
       </c>
       <c r="E18">
-        <v>1.00684052645295</v>
+        <v>1.035958369210632</v>
       </c>
       <c r="F18">
-        <v>1.018760132849435</v>
+        <v>1.052641499800675</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046614387461292</v>
+        <v>1.041925269625968</v>
       </c>
       <c r="J18">
-        <v>1.02666743842092</v>
+        <v>1.043172648424679</v>
       </c>
       <c r="K18">
-        <v>1.034038561417264</v>
+        <v>1.047801708218655</v>
       </c>
       <c r="L18">
-        <v>1.020542219000915</v>
+        <v>1.039282446743122</v>
       </c>
       <c r="M18">
-        <v>1.032262712877733</v>
+        <v>1.055909198384404</v>
       </c>
       <c r="N18">
-        <v>1.012299406679257</v>
+        <v>1.018247972568582</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000001758251721</v>
+        <v>1.037155245418263</v>
       </c>
       <c r="D19">
-        <v>1.020888349945694</v>
+        <v>1.044569782592712</v>
       </c>
       <c r="E19">
-        <v>1.007170899313585</v>
+        <v>1.036024846394871</v>
       </c>
       <c r="F19">
-        <v>1.019159349697893</v>
+        <v>1.052722453433558</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046774649652058</v>
+        <v>1.041949928515238</v>
       </c>
       <c r="J19">
-        <v>1.026930072314611</v>
+        <v>1.043223415226685</v>
       </c>
       <c r="K19">
-        <v>1.034293343711824</v>
+        <v>1.047850339127911</v>
       </c>
       <c r="L19">
-        <v>1.02080310553789</v>
+        <v>1.039334389801112</v>
       </c>
       <c r="M19">
-        <v>1.032592549179015</v>
+        <v>1.055975835192634</v>
       </c>
       <c r="N19">
-        <v>1.012389712809369</v>
+        <v>1.018265217333171</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9981484754619303</v>
+        <v>1.036805657390416</v>
       </c>
       <c r="D20">
-        <v>1.019440021457166</v>
+        <v>1.044287971987066</v>
       </c>
       <c r="E20">
-        <v>1.005688497640941</v>
+        <v>1.035727585955349</v>
       </c>
       <c r="F20">
-        <v>1.017367924907091</v>
+        <v>1.052360462610921</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046054498593463</v>
+        <v>1.041839551071619</v>
       </c>
       <c r="J20">
-        <v>1.02575095732453</v>
+        <v>1.042996342628161</v>
       </c>
       <c r="K20">
-        <v>1.033149442715038</v>
+        <v>1.047632811371006</v>
       </c>
       <c r="L20">
-        <v>1.019632053768651</v>
+        <v>1.039102078408371</v>
       </c>
       <c r="M20">
-        <v>1.031112103612325</v>
+        <v>1.055677824766693</v>
       </c>
       <c r="N20">
-        <v>1.011984258917571</v>
+        <v>1.018188075816557</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9919990500675654</v>
+        <v>1.035669378872253</v>
       </c>
       <c r="D21">
-        <v>1.014640754549399</v>
+        <v>1.043372009954257</v>
       </c>
       <c r="E21">
-        <v>1.000780319094653</v>
+        <v>1.034761889397555</v>
       </c>
       <c r="F21">
-        <v>1.011434372638057</v>
+        <v>1.051184525783595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043651569993493</v>
+        <v>1.041478999820924</v>
       </c>
       <c r="J21">
-        <v>1.021835138782608</v>
+        <v>1.042257556029283</v>
       </c>
       <c r="K21">
-        <v>1.029349962555959</v>
+        <v>1.046924926716858</v>
       </c>
       <c r="L21">
-        <v>1.015746923156895</v>
+        <v>1.038346641380275</v>
       </c>
       <c r="M21">
-        <v>1.026202307810553</v>
+        <v>1.054709054846429</v>
       </c>
       <c r="N21">
-        <v>1.010637477773147</v>
+        <v>1.017936950904699</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9880322247470573</v>
+        <v>1.034955160030222</v>
       </c>
       <c r="D22">
-        <v>1.011550291774262</v>
+        <v>1.042796289403604</v>
       </c>
       <c r="E22">
-        <v>0.9976227831265659</v>
+        <v>1.034155277880802</v>
       </c>
       <c r="F22">
-        <v>1.007615305917097</v>
+        <v>1.050445883435653</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042091472615433</v>
+        <v>1.041251002461114</v>
       </c>
       <c r="J22">
-        <v>1.01930683319148</v>
+        <v>1.041792630848164</v>
       </c>
       <c r="K22">
-        <v>1.026896355959657</v>
+        <v>1.04647933196522</v>
       </c>
       <c r="L22">
-        <v>1.013241480703091</v>
+        <v>1.037871540290387</v>
       </c>
       <c r="M22">
-        <v>1.02303739673128</v>
+        <v>1.054100022830217</v>
       </c>
       <c r="N22">
-        <v>1.009767741538205</v>
+        <v>1.017778806631849</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9901449854465039</v>
+        <v>1.035333761515725</v>
       </c>
       <c r="D23">
-        <v>1.01319575804574</v>
+        <v>1.043101472352019</v>
       </c>
       <c r="E23">
-        <v>0.9993036747373785</v>
+        <v>1.034476800769915</v>
       </c>
       <c r="F23">
-        <v>1.009648548350392</v>
+        <v>1.050837383694427</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042923317295063</v>
+        <v>1.041371991741841</v>
       </c>
       <c r="J23">
-        <v>1.020653627277097</v>
+        <v>1.042039136226725</v>
       </c>
       <c r="K23">
-        <v>1.028203394681202</v>
+        <v>1.046715599272461</v>
       </c>
       <c r="L23">
-        <v>1.014575806939404</v>
+        <v>1.038123412314995</v>
       </c>
       <c r="M23">
-        <v>1.024722817211619</v>
+        <v>1.054422875230809</v>
       </c>
       <c r="N23">
-        <v>1.010231050954433</v>
+        <v>1.017862665721104</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9982499445287415</v>
+        <v>1.036824710709165</v>
       </c>
       <c r="D24">
-        <v>1.019519295828649</v>
+        <v>1.044303331230312</v>
       </c>
       <c r="E24">
-        <v>1.005769622085205</v>
+        <v>1.035743785428843</v>
       </c>
       <c r="F24">
-        <v>1.017465968431099</v>
+        <v>1.052380189444442</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046093978021651</v>
+        <v>1.041845573629568</v>
       </c>
       <c r="J24">
-        <v>1.025815528231838</v>
+        <v>1.04300872132177</v>
       </c>
       <c r="K24">
-        <v>1.033212087606488</v>
+        <v>1.047644670310403</v>
       </c>
       <c r="L24">
-        <v>1.019696168656343</v>
+        <v>1.039114741205839</v>
       </c>
       <c r="M24">
-        <v>1.03119315092902</v>
+        <v>1.055694067509844</v>
       </c>
       <c r="N24">
-        <v>1.012006463596757</v>
+        <v>1.018192281669278</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007250964358209</v>
+        <v>1.038555760367186</v>
       </c>
       <c r="D25">
-        <v>1.026561938787681</v>
+        <v>1.045698786162623</v>
       </c>
       <c r="E25">
-        <v>1.012983792764864</v>
+        <v>1.037216464921652</v>
       </c>
       <c r="F25">
-        <v>1.026181224137415</v>
+        <v>1.054173628878758</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049571596219528</v>
+        <v>1.042389450580058</v>
       </c>
       <c r="J25">
-        <v>1.031536744663928</v>
+        <v>1.044132025139613</v>
       </c>
       <c r="K25">
-        <v>1.038761447668304</v>
+        <v>1.048720527912142</v>
       </c>
       <c r="L25">
-        <v>1.025383841001484</v>
+        <v>1.040264549302386</v>
       </c>
       <c r="M25">
-        <v>1.038386264187166</v>
+        <v>1.057169512969978</v>
       </c>
       <c r="N25">
-        <v>1.013973270818543</v>
+        <v>1.018573677392582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039937150655295</v>
+        <v>1.014136673589036</v>
       </c>
       <c r="D2">
-        <v>1.046812387593398</v>
+        <v>1.031962933220207</v>
       </c>
       <c r="E2">
-        <v>1.038392989847484</v>
+        <v>1.018526812155667</v>
       </c>
       <c r="F2">
-        <v>1.055606551737749</v>
+        <v>1.032873309072174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042818648575959</v>
+        <v>1.052195320416267</v>
       </c>
       <c r="J2">
-        <v>1.045026465710855</v>
+        <v>1.035902626743257</v>
       </c>
       <c r="K2">
-        <v>1.049576775548565</v>
+        <v>1.042994233438908</v>
       </c>
       <c r="L2">
-        <v>1.041181151534735</v>
+        <v>1.029733934741527</v>
       </c>
       <c r="M2">
-        <v>1.058346546582373</v>
+        <v>1.043892903217777</v>
       </c>
       <c r="N2">
-        <v>1.01887697790105</v>
+        <v>1.015473072454239</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040940573279948</v>
+        <v>1.018980611107685</v>
       </c>
       <c r="D3">
-        <v>1.047621291418033</v>
+        <v>1.035769018602363</v>
       </c>
       <c r="E3">
-        <v>1.03924835236977</v>
+        <v>1.022439119116201</v>
       </c>
       <c r="F3">
-        <v>1.056648411584039</v>
+        <v>1.037594666341416</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043127613897949</v>
+        <v>1.054019031313251</v>
       </c>
       <c r="J3">
-        <v>1.045675030215433</v>
+        <v>1.038966887311358</v>
       </c>
       <c r="K3">
-        <v>1.050197404736704</v>
+        <v>1.045963803809513</v>
       </c>
       <c r="L3">
-        <v>1.041846398266942</v>
+        <v>1.03279271719471</v>
       </c>
       <c r="M3">
-        <v>1.059201298722806</v>
+        <v>1.047768093754535</v>
       </c>
       <c r="N3">
-        <v>1.019096675242671</v>
+        <v>1.016524968517419</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041590044616103</v>
+        <v>1.02204728948077</v>
       </c>
       <c r="D4">
-        <v>1.048144855207556</v>
+        <v>1.038181342890169</v>
       </c>
       <c r="E4">
-        <v>1.039802334546926</v>
+        <v>1.024921633316724</v>
       </c>
       <c r="F4">
-        <v>1.057323224069737</v>
+        <v>1.040589803010681</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043326297892945</v>
+        <v>1.055163159514994</v>
       </c>
       <c r="J4">
-        <v>1.046094286002377</v>
+        <v>1.040903356497495</v>
       </c>
       <c r="K4">
-        <v>1.050598489875214</v>
+        <v>1.047839797672345</v>
       </c>
       <c r="L4">
-        <v>1.042276721408399</v>
+        <v>1.034728300270133</v>
       </c>
       <c r="M4">
-        <v>1.059754434157812</v>
+        <v>1.050221834756278</v>
       </c>
       <c r="N4">
-        <v>1.019238589531461</v>
+        <v>1.017189319772126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041863127463902</v>
+        <v>1.023320928037967</v>
       </c>
       <c r="D5">
-        <v>1.04836499624163</v>
+        <v>1.03918381771386</v>
       </c>
       <c r="E5">
-        <v>1.04003534879677</v>
+        <v>1.025953968302781</v>
       </c>
       <c r="F5">
-        <v>1.057607072439084</v>
+        <v>1.041835150430433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043409528105613</v>
+        <v>1.055635785286494</v>
       </c>
       <c r="J5">
-        <v>1.046270442726439</v>
+        <v>1.041706725969759</v>
       </c>
       <c r="K5">
-        <v>1.050766984965777</v>
+        <v>1.048617919014768</v>
       </c>
       <c r="L5">
-        <v>1.042457596078851</v>
+        <v>1.035531918400733</v>
       </c>
       <c r="M5">
-        <v>1.059986984504921</v>
+        <v>1.051240961704788</v>
       </c>
       <c r="N5">
-        <v>1.019298191477467</v>
+        <v>1.01746483248165</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041908981910442</v>
+        <v>1.023533880248393</v>
       </c>
       <c r="D6">
-        <v>1.048401960907313</v>
+        <v>1.039351465218033</v>
       </c>
       <c r="E6">
-        <v>1.040074479934923</v>
+        <v>1.02612665021801</v>
       </c>
       <c r="F6">
-        <v>1.057654741027757</v>
+        <v>1.042043454974078</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043423485425415</v>
+        <v>1.055714657321245</v>
       </c>
       <c r="J6">
-        <v>1.046300014429214</v>
+        <v>1.041840996742476</v>
       </c>
       <c r="K6">
-        <v>1.050795268914738</v>
+        <v>1.048747960404814</v>
       </c>
       <c r="L6">
-        <v>1.042487963768185</v>
+        <v>1.035666266924065</v>
       </c>
       <c r="M6">
-        <v>1.060026031429157</v>
+        <v>1.051411361487225</v>
       </c>
       <c r="N6">
-        <v>1.0193081954494</v>
+        <v>1.01751087397444</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.04159369338569</v>
+        <v>1.022064368390014</v>
       </c>
       <c r="D7">
-        <v>1.048147796607068</v>
+        <v>1.038194783313238</v>
       </c>
       <c r="E7">
-        <v>1.039805447623733</v>
+        <v>1.024935471343942</v>
       </c>
       <c r="F7">
-        <v>1.057327016248702</v>
+        <v>1.040606496976071</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043327411184741</v>
+        <v>1.055169507330119</v>
       </c>
       <c r="J7">
-        <v>1.046096640204494</v>
+        <v>1.040914132820813</v>
       </c>
       <c r="K7">
-        <v>1.050600741791426</v>
+        <v>1.047850235957432</v>
       </c>
       <c r="L7">
-        <v>1.042279138395747</v>
+        <v>1.034739077494763</v>
       </c>
       <c r="M7">
-        <v>1.059757541459741</v>
+        <v>1.050235500631244</v>
       </c>
       <c r="N7">
-        <v>1.019239386167041</v>
+        <v>1.017193015886119</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040276222524034</v>
+        <v>1.015788093761775</v>
       </c>
       <c r="D8">
-        <v>1.047085729089764</v>
+        <v>1.03325992447048</v>
       </c>
       <c r="E8">
-        <v>1.038681958448441</v>
+        <v>1.019859401782559</v>
       </c>
       <c r="F8">
-        <v>1.055958516185109</v>
+        <v>1.034481644891267</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042923320822276</v>
+        <v>1.052819239450029</v>
       </c>
       <c r="J8">
-        <v>1.045245735446423</v>
+        <v>1.036948023284439</v>
       </c>
       <c r="K8">
-        <v>1.049786623984208</v>
+        <v>1.04400745509191</v>
       </c>
       <c r="L8">
-        <v>1.04140600256197</v>
+        <v>1.030776919923099</v>
       </c>
       <c r="M8">
-        <v>1.058635402582127</v>
+        <v>1.045213950770129</v>
       </c>
       <c r="N8">
-        <v>1.018951276127711</v>
+        <v>1.015832014563788</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037956138961661</v>
+        <v>1.004181118003869</v>
       </c>
       <c r="D9">
-        <v>1.045215407713618</v>
+        <v>1.024157717753335</v>
       </c>
       <c r="E9">
-        <v>1.036706135653237</v>
+        <v>1.010519370054532</v>
       </c>
       <c r="F9">
-        <v>1.053552125203994</v>
+        <v>1.023204769113881</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042201801364797</v>
+        <v>1.048391210404441</v>
       </c>
       <c r="J9">
-        <v>1.043743225041874</v>
+        <v>1.029587089265663</v>
       </c>
       <c r="K9">
-        <v>1.048348213819018</v>
+        <v>1.036870645230228</v>
       </c>
       <c r="L9">
-        <v>1.039866411645006</v>
+        <v>1.023444052577344</v>
       </c>
       <c r="M9">
-        <v>1.056658489072966</v>
+        <v>1.035932258494921</v>
       </c>
       <c r="N9">
-        <v>1.018441727972343</v>
+        <v>1.013303180238452</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036410421379529</v>
+        <v>0.9960315216742627</v>
       </c>
       <c r="D10">
-        <v>1.043969366301383</v>
+        <v>1.017786730901491</v>
       </c>
       <c r="E10">
-        <v>1.035391597784208</v>
+        <v>1.003997009238533</v>
       </c>
       <c r="F10">
-        <v>1.051951319141666</v>
+        <v>1.015323455452745</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041714446985552</v>
+        <v>1.04522954115833</v>
       </c>
       <c r="J10">
-        <v>1.042739492365254</v>
+        <v>1.024403480604284</v>
       </c>
       <c r="K10">
-        <v>1.047386730841797</v>
+        <v>1.031842098789894</v>
       </c>
       <c r="L10">
-        <v>1.03883937151727</v>
+        <v>1.018294469522191</v>
       </c>
       <c r="M10">
-        <v>1.055340877168222</v>
+        <v>1.029421444255633</v>
       </c>
       <c r="N10">
-        <v>1.018100793036874</v>
+        <v>1.011520860191141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035741349823453</v>
+        <v>0.9923943658271922</v>
       </c>
       <c r="D11">
-        <v>1.04343002535695</v>
+        <v>1.014948971401948</v>
       </c>
       <c r="E11">
-        <v>1.034823033335641</v>
+        <v>1.001095352972178</v>
       </c>
       <c r="F11">
-        <v>1.051258979268272</v>
+        <v>1.011815325921364</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041501916816326</v>
+        <v>1.043806628382377</v>
       </c>
       <c r="J11">
-        <v>1.042304382531593</v>
+        <v>1.02208700708778</v>
       </c>
       <c r="K11">
-        <v>1.046969801367011</v>
+        <v>1.029594373056376</v>
       </c>
       <c r="L11">
-        <v>1.038394505593305</v>
+        <v>1.015996642061659</v>
       </c>
       <c r="M11">
-        <v>1.054770421953857</v>
+        <v>1.026517810096073</v>
       </c>
       <c r="N11">
-        <v>1.017952874329185</v>
+        <v>1.010724114349658</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035492862201408</v>
+        <v>0.9910260993076127</v>
       </c>
       <c r="D12">
-        <v>1.043229721361946</v>
+        <v>1.013882352134799</v>
       </c>
       <c r="E12">
-        <v>1.034611939951747</v>
+        <v>1.000005242686213</v>
       </c>
       <c r="F12">
-        <v>1.051001937088244</v>
+        <v>1.010497051741472</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041422748160897</v>
+        <v>1.043269614238792</v>
       </c>
       <c r="J12">
-        <v>1.042142690613023</v>
+        <v>1.021215167096777</v>
       </c>
       <c r="K12">
-        <v>1.046814845354257</v>
+        <v>1.028748334973679</v>
       </c>
       <c r="L12">
-        <v>1.038229240440537</v>
+        <v>1.015132342255135</v>
       </c>
       <c r="M12">
-        <v>1.054558541904951</v>
+        <v>1.025425870638382</v>
       </c>
       <c r="N12">
-        <v>1.017897887147216</v>
+        <v>1.010424217475779</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03554616203824</v>
+        <v>0.9913203951403943</v>
       </c>
       <c r="D13">
-        <v>1.043272685823386</v>
+        <v>1.014111724738319</v>
       </c>
       <c r="E13">
-        <v>1.03465721580824</v>
+        <v>1.000239643271276</v>
       </c>
       <c r="F13">
-        <v>1.051057067903428</v>
+        <v>1.010780528249718</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041439740306038</v>
+        <v>1.043385195878294</v>
       </c>
       <c r="J13">
-        <v>1.042177377364109</v>
+        <v>1.021402705528649</v>
       </c>
       <c r="K13">
-        <v>1.046848088003284</v>
+        <v>1.028930326353157</v>
       </c>
       <c r="L13">
-        <v>1.038264691370528</v>
+        <v>1.015318235048829</v>
       </c>
       <c r="M13">
-        <v>1.054603990325006</v>
+        <v>1.025660713900705</v>
       </c>
       <c r="N13">
-        <v>1.017909684053213</v>
+        <v>1.010488728423873</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03572080903729</v>
+        <v>0.992281622686824</v>
       </c>
       <c r="D14">
-        <v>1.043413467524689</v>
+        <v>1.014861064357832</v>
       </c>
       <c r="E14">
-        <v>1.034805582312327</v>
+        <v>1.001005499222354</v>
       </c>
       <c r="F14">
-        <v>1.051237729555514</v>
+        <v>1.011706672190911</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041495377309014</v>
+        <v>1.043762413963714</v>
       </c>
       <c r="J14">
-        <v>1.042291018508942</v>
+        <v>1.022015176626267</v>
       </c>
       <c r="K14">
-        <v>1.046956994484791</v>
+        <v>1.029524669812853</v>
       </c>
       <c r="L14">
-        <v>1.038380845172933</v>
+        <v>1.015925422183806</v>
       </c>
       <c r="M14">
-        <v>1.054752907626808</v>
+        <v>1.026427827754951</v>
       </c>
       <c r="N14">
-        <v>1.017948329959439</v>
+        <v>1.010699406543075</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035828419505057</v>
+        <v>0.9928715480186165</v>
       </c>
       <c r="D15">
-        <v>1.043500211939054</v>
+        <v>1.015321073528952</v>
       </c>
       <c r="E15">
-        <v>1.0348970086572</v>
+        <v>1.001475716716682</v>
       </c>
       <c r="F15">
-        <v>1.051349057565819</v>
+        <v>1.012275259384673</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041529627230926</v>
+        <v>1.043993694660152</v>
       </c>
       <c r="J15">
-        <v>1.042361026940631</v>
+        <v>1.022391011424366</v>
       </c>
       <c r="K15">
-        <v>1.047024083471009</v>
+        <v>1.029889371590521</v>
       </c>
       <c r="L15">
-        <v>1.038452408445561</v>
+        <v>1.016298083574535</v>
       </c>
       <c r="M15">
-        <v>1.054844662151234</v>
+        <v>1.026898673804716</v>
       </c>
       <c r="N15">
-        <v>1.017972135208704</v>
+        <v>1.010828682770267</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036454830404214</v>
+        <v>0.9962705426381655</v>
       </c>
       <c r="D16">
-        <v>1.044005164926093</v>
+        <v>1.017973341620362</v>
       </c>
       <c r="E16">
-        <v>1.035429345063454</v>
+        <v>1.004187894928068</v>
       </c>
       <c r="F16">
-        <v>1.051997284773891</v>
+        <v>1.015554195462874</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041728520277873</v>
+        <v>1.045322807628133</v>
       </c>
       <c r="J16">
-        <v>1.042768358946936</v>
+        <v>1.024555652272766</v>
       </c>
       <c r="K16">
-        <v>1.047414388454031</v>
+        <v>1.031989743776164</v>
       </c>
       <c r="L16">
-        <v>1.038868892670509</v>
+        <v>1.018445488348673</v>
       </c>
       <c r="M16">
-        <v>1.055378738116837</v>
+        <v>1.029612310348549</v>
       </c>
       <c r="N16">
-        <v>1.018110603789337</v>
+        <v>1.011573194727842</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03684782424977</v>
+        <v>0.9983729647771868</v>
       </c>
       <c r="D17">
-        <v>1.044321963504683</v>
+        <v>1.019615411007663</v>
       </c>
       <c r="E17">
-        <v>1.035763437265498</v>
+        <v>1.005867982659714</v>
       </c>
       <c r="F17">
-        <v>1.052404120404794</v>
+        <v>1.017584841584495</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041852878541551</v>
+        <v>1.046141834802042</v>
       </c>
       <c r="J17">
-        <v>1.043023737466784</v>
+        <v>1.025893811453278</v>
       </c>
       <c r="K17">
-        <v>1.047659055871626</v>
+        <v>1.033288035440532</v>
       </c>
       <c r="L17">
-        <v>1.039130102216052</v>
+        <v>1.019773901249565</v>
       </c>
       <c r="M17">
-        <v>1.055713771467447</v>
+        <v>1.03129141336705</v>
       </c>
       <c r="N17">
-        <v>1.01819738355361</v>
+        <v>1.012033383502908</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03707707351378</v>
+        <v>0.9995888908765912</v>
       </c>
       <c r="D18">
-        <v>1.044506766314553</v>
+        <v>1.020565619894135</v>
       </c>
       <c r="E18">
-        <v>1.035958369210632</v>
+        <v>1.006840526452949</v>
       </c>
       <c r="F18">
-        <v>1.052641499800675</v>
+        <v>1.018760132849436</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041925269625968</v>
+        <v>1.046614387461292</v>
       </c>
       <c r="J18">
-        <v>1.043172648424679</v>
+        <v>1.026667438420921</v>
       </c>
       <c r="K18">
-        <v>1.047801708218655</v>
+        <v>1.034038561417264</v>
       </c>
       <c r="L18">
-        <v>1.039282446743122</v>
+        <v>1.020542219000915</v>
       </c>
       <c r="M18">
-        <v>1.055909198384404</v>
+        <v>1.032262712877734</v>
       </c>
       <c r="N18">
-        <v>1.018247972568582</v>
+        <v>1.012299406679257</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037155245418263</v>
+        <v>1.000001758251721</v>
       </c>
       <c r="D19">
-        <v>1.044569782592712</v>
+        <v>1.020888349945695</v>
       </c>
       <c r="E19">
-        <v>1.036024846394871</v>
+        <v>1.007170899313585</v>
       </c>
       <c r="F19">
-        <v>1.052722453433558</v>
+        <v>1.019159349697894</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041949928515238</v>
+        <v>1.046774649652058</v>
       </c>
       <c r="J19">
-        <v>1.043223415226685</v>
+        <v>1.026930072314611</v>
       </c>
       <c r="K19">
-        <v>1.047850339127911</v>
+        <v>1.034293343711825</v>
       </c>
       <c r="L19">
-        <v>1.039334389801112</v>
+        <v>1.02080310553789</v>
       </c>
       <c r="M19">
-        <v>1.055975835192634</v>
+        <v>1.032592549179015</v>
       </c>
       <c r="N19">
-        <v>1.018265217333171</v>
+        <v>1.012389712809369</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036805657390416</v>
+        <v>0.9981484754619296</v>
       </c>
       <c r="D20">
-        <v>1.044287971987066</v>
+        <v>1.019440021457166</v>
       </c>
       <c r="E20">
-        <v>1.035727585955349</v>
+        <v>1.005688497640941</v>
       </c>
       <c r="F20">
-        <v>1.052360462610921</v>
+        <v>1.017367924907091</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041839551071619</v>
+        <v>1.046054498593463</v>
       </c>
       <c r="J20">
-        <v>1.042996342628161</v>
+        <v>1.025750957324529</v>
       </c>
       <c r="K20">
-        <v>1.047632811371006</v>
+        <v>1.033149442715037</v>
       </c>
       <c r="L20">
-        <v>1.039102078408371</v>
+        <v>1.019632053768651</v>
       </c>
       <c r="M20">
-        <v>1.055677824766693</v>
+        <v>1.031112103612325</v>
       </c>
       <c r="N20">
-        <v>1.018188075816557</v>
+        <v>1.011984258917571</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035669378872253</v>
+        <v>0.9919990500675661</v>
       </c>
       <c r="D21">
-        <v>1.043372009954257</v>
+        <v>1.0146407545494</v>
       </c>
       <c r="E21">
-        <v>1.034761889397555</v>
+        <v>1.000780319094653</v>
       </c>
       <c r="F21">
-        <v>1.051184525783595</v>
+        <v>1.011434372638057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041478999820924</v>
+        <v>1.043651569993493</v>
       </c>
       <c r="J21">
-        <v>1.042257556029283</v>
+        <v>1.021835138782609</v>
       </c>
       <c r="K21">
-        <v>1.046924926716858</v>
+        <v>1.02934996255596</v>
       </c>
       <c r="L21">
-        <v>1.038346641380275</v>
+        <v>1.015746923156895</v>
       </c>
       <c r="M21">
-        <v>1.054709054846429</v>
+        <v>1.026202307810554</v>
       </c>
       <c r="N21">
-        <v>1.017936950904699</v>
+        <v>1.010637477773147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034955160030222</v>
+        <v>0.9880322247470569</v>
       </c>
       <c r="D22">
-        <v>1.042796289403604</v>
+        <v>1.011550291774261</v>
       </c>
       <c r="E22">
-        <v>1.034155277880802</v>
+        <v>0.9976227831265656</v>
       </c>
       <c r="F22">
-        <v>1.050445883435653</v>
+        <v>1.007615305917096</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041251002461114</v>
+        <v>1.042091472615433</v>
       </c>
       <c r="J22">
-        <v>1.041792630848164</v>
+        <v>1.019306833191479</v>
       </c>
       <c r="K22">
-        <v>1.04647933196522</v>
+        <v>1.026896355959656</v>
       </c>
       <c r="L22">
-        <v>1.037871540290387</v>
+        <v>1.01324148070309</v>
       </c>
       <c r="M22">
-        <v>1.054100022830217</v>
+        <v>1.023037396731279</v>
       </c>
       <c r="N22">
-        <v>1.017778806631849</v>
+        <v>1.009767741538205</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035333761515725</v>
+        <v>0.9901449854465042</v>
       </c>
       <c r="D23">
-        <v>1.043101472352019</v>
+        <v>1.01319575804574</v>
       </c>
       <c r="E23">
-        <v>1.034476800769915</v>
+        <v>0.9993036747373786</v>
       </c>
       <c r="F23">
-        <v>1.050837383694427</v>
+        <v>1.009648548350392</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041371991741841</v>
+        <v>1.042923317295063</v>
       </c>
       <c r="J23">
-        <v>1.042039136226725</v>
+        <v>1.020653627277097</v>
       </c>
       <c r="K23">
-        <v>1.046715599272461</v>
+        <v>1.028203394681202</v>
       </c>
       <c r="L23">
-        <v>1.038123412314995</v>
+        <v>1.014575806939404</v>
       </c>
       <c r="M23">
-        <v>1.054422875230809</v>
+        <v>1.024722817211619</v>
       </c>
       <c r="N23">
-        <v>1.017862665721104</v>
+        <v>1.010231050954433</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036824710709165</v>
+        <v>0.9982499445287402</v>
       </c>
       <c r="D24">
-        <v>1.044303331230312</v>
+        <v>1.019519295828648</v>
       </c>
       <c r="E24">
-        <v>1.035743785428843</v>
+        <v>1.005769622085203</v>
       </c>
       <c r="F24">
-        <v>1.052380189444442</v>
+        <v>1.017465968431097</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041845573629568</v>
+        <v>1.046093978021651</v>
       </c>
       <c r="J24">
-        <v>1.04300872132177</v>
+        <v>1.025815528231837</v>
       </c>
       <c r="K24">
-        <v>1.047644670310403</v>
+        <v>1.033212087606487</v>
       </c>
       <c r="L24">
-        <v>1.039114741205839</v>
+        <v>1.019696168656343</v>
       </c>
       <c r="M24">
-        <v>1.055694067509844</v>
+        <v>1.031193150929019</v>
       </c>
       <c r="N24">
-        <v>1.018192281669278</v>
+        <v>1.012006463596757</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038555760367186</v>
+        <v>1.007250964358209</v>
       </c>
       <c r="D25">
-        <v>1.045698786162623</v>
+        <v>1.026561938787681</v>
       </c>
       <c r="E25">
-        <v>1.037216464921652</v>
+        <v>1.012983792764865</v>
       </c>
       <c r="F25">
-        <v>1.054173628878758</v>
+        <v>1.026181224137415</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042389450580058</v>
+        <v>1.049571596219528</v>
       </c>
       <c r="J25">
-        <v>1.044132025139613</v>
+        <v>1.031536744663928</v>
       </c>
       <c r="K25">
-        <v>1.048720527912142</v>
+        <v>1.038761447668304</v>
       </c>
       <c r="L25">
-        <v>1.040264549302386</v>
+        <v>1.025383841001485</v>
       </c>
       <c r="M25">
-        <v>1.057169512969978</v>
+        <v>1.038386264187166</v>
       </c>
       <c r="N25">
-        <v>1.018573677392582</v>
+        <v>1.013973270818543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014136673589036</v>
+        <v>0.9925642595901147</v>
       </c>
       <c r="D2">
-        <v>1.031962933220207</v>
+        <v>1.015572044623129</v>
       </c>
       <c r="E2">
-        <v>1.018526812155667</v>
-      </c>
-      <c r="F2">
-        <v>1.032873309072174</v>
+        <v>1.000071627764591</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052195320416267</v>
+        <v>1.044418975320612</v>
       </c>
       <c r="J2">
-        <v>1.035902626743257</v>
+        <v>1.014969669973527</v>
       </c>
       <c r="K2">
-        <v>1.042994233438908</v>
+        <v>1.026818616560683</v>
       </c>
       <c r="L2">
-        <v>1.029733934741527</v>
-      </c>
-      <c r="M2">
-        <v>1.043892903217777</v>
+        <v>1.011529964788194</v>
       </c>
       <c r="N2">
-        <v>1.015473072454239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008996052238044</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030033199694919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018980611107685</v>
+        <v>0.9971942780100922</v>
       </c>
       <c r="D3">
-        <v>1.035769018602363</v>
+        <v>1.018642228998645</v>
       </c>
       <c r="E3">
-        <v>1.022439119116201</v>
-      </c>
-      <c r="F3">
-        <v>1.037594666341416</v>
+        <v>1.003759678508776</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054019031313251</v>
+        <v>1.04547947958585</v>
       </c>
       <c r="J3">
-        <v>1.038966887311358</v>
+        <v>1.017761723167875</v>
       </c>
       <c r="K3">
-        <v>1.045963803809513</v>
+        <v>1.029042008678248</v>
       </c>
       <c r="L3">
-        <v>1.03279271719471</v>
-      </c>
-      <c r="M3">
-        <v>1.047768093754535</v>
+        <v>1.014344678513315</v>
       </c>
       <c r="N3">
-        <v>1.016524968517419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009924444330147</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031602675243956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02204728948077</v>
+        <v>1.000126090607547</v>
       </c>
       <c r="D4">
-        <v>1.038181342890169</v>
+        <v>1.020587530288234</v>
       </c>
       <c r="E4">
-        <v>1.024921633316724</v>
-      </c>
-      <c r="F4">
-        <v>1.040589803010681</v>
+        <v>1.006101432188573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055163159514994</v>
+        <v>1.046135905913987</v>
       </c>
       <c r="J4">
-        <v>1.040903356497495</v>
+        <v>1.019526571524378</v>
       </c>
       <c r="K4">
-        <v>1.047839797672345</v>
+        <v>1.030443672881783</v>
       </c>
       <c r="L4">
-        <v>1.034728300270133</v>
-      </c>
-      <c r="M4">
-        <v>1.050221834756278</v>
+        <v>1.016126771873273</v>
       </c>
       <c r="N4">
-        <v>1.017189319772126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010511437845764</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032594700273046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023320928037967</v>
+        <v>1.00134724209636</v>
       </c>
       <c r="D5">
-        <v>1.03918381771386</v>
+        <v>1.021399810835777</v>
       </c>
       <c r="E5">
-        <v>1.025953968302781</v>
-      </c>
-      <c r="F5">
-        <v>1.041835150430433</v>
+        <v>1.007078747320162</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055635785286494</v>
+        <v>1.046406941484831</v>
       </c>
       <c r="J5">
-        <v>1.041706725969759</v>
+        <v>1.020262145576072</v>
       </c>
       <c r="K5">
-        <v>1.048617919014768</v>
+        <v>1.031028339228611</v>
       </c>
       <c r="L5">
-        <v>1.035531918400733</v>
-      </c>
-      <c r="M5">
-        <v>1.051240961704788</v>
+        <v>1.016870006182944</v>
       </c>
       <c r="N5">
-        <v>1.01746483248165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010756727422306</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033015356374211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +597,81 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023533880248393</v>
+        <v>1.001555569198928</v>
       </c>
       <c r="D6">
-        <v>1.039351465218033</v>
+        <v>1.021540586448913</v>
       </c>
       <c r="E6">
-        <v>1.02612665021801</v>
-      </c>
-      <c r="F6">
-        <v>1.042043454974078</v>
+        <v>1.007246094745326</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055714657321245</v>
+        <v>1.046454558167373</v>
       </c>
       <c r="J6">
-        <v>1.041840996742476</v>
+        <v>1.020389132572101</v>
       </c>
       <c r="K6">
-        <v>1.048747960404814</v>
+        <v>1.031130898487517</v>
       </c>
       <c r="L6">
-        <v>1.035666266924065</v>
-      </c>
-      <c r="M6">
-        <v>1.051411361487225</v>
+        <v>1.016998076980129</v>
       </c>
       <c r="N6">
-        <v>1.01751087397444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010799802894683</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033096702534786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022064368390014</v>
+        <v>1.000153531608973</v>
       </c>
       <c r="D7">
-        <v>1.038194783313238</v>
+        <v>1.020611607229623</v>
       </c>
       <c r="E7">
-        <v>1.024935471343942</v>
-      </c>
-      <c r="F7">
-        <v>1.040606496976071</v>
+        <v>1.006124826226362</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055169507330119</v>
+        <v>1.046146259409547</v>
       </c>
       <c r="J7">
-        <v>1.040914132820813</v>
+        <v>1.019547221595444</v>
       </c>
       <c r="K7">
-        <v>1.047850235957432</v>
+        <v>1.030464553390786</v>
       </c>
       <c r="L7">
-        <v>1.034739077494763</v>
-      </c>
-      <c r="M7">
-        <v>1.050235500631244</v>
+        <v>1.016146910980088</v>
       </c>
       <c r="N7">
-        <v>1.017193015886119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010520303517016</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032629771703457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015788093761775</v>
+        <v>0.9941560989475354</v>
       </c>
       <c r="D8">
-        <v>1.03325992447048</v>
+        <v>1.016634336549287</v>
       </c>
       <c r="E8">
-        <v>1.019859401782559</v>
-      </c>
-      <c r="F8">
-        <v>1.034481644891267</v>
+        <v>1.001340109890551</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052819239450029</v>
+        <v>1.044791739533866</v>
       </c>
       <c r="J8">
-        <v>1.036948023284439</v>
+        <v>1.015935189212623</v>
       </c>
       <c r="K8">
-        <v>1.04400745509191</v>
+        <v>1.027593602520612</v>
       </c>
       <c r="L8">
-        <v>1.030776919923099</v>
-      </c>
-      <c r="M8">
-        <v>1.045213950770129</v>
+        <v>1.012501959084795</v>
       </c>
       <c r="N8">
-        <v>1.015832014563788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009319652127389</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.030604354978154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004181118003869</v>
+        <v>0.9830529753035431</v>
       </c>
       <c r="D9">
-        <v>1.024157717753335</v>
+        <v>1.009274988403601</v>
       </c>
       <c r="E9">
-        <v>1.010519370054532</v>
-      </c>
-      <c r="F9">
-        <v>1.023204769113881</v>
+        <v>0.992533181508798</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048391210404441</v>
+        <v>1.042159905849254</v>
       </c>
       <c r="J9">
-        <v>1.029587089265663</v>
+        <v>1.009218704948132</v>
       </c>
       <c r="K9">
-        <v>1.036870645230228</v>
+        <v>1.02221935660193</v>
       </c>
       <c r="L9">
-        <v>1.023444052577344</v>
-      </c>
-      <c r="M9">
-        <v>1.035932258494921</v>
+        <v>1.005748575553543</v>
       </c>
       <c r="N9">
-        <v>1.013303180238452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007085032853684</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026801089265917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9960315216742627</v>
+        <v>0.9752662592703419</v>
       </c>
       <c r="D10">
-        <v>1.017786730901491</v>
+        <v>1.004129184024665</v>
       </c>
       <c r="E10">
-        <v>1.003997009238533</v>
-      </c>
-      <c r="F10">
-        <v>1.015323455452745</v>
+        <v>0.9863972149346789</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04522954115833</v>
+        <v>1.040239691103814</v>
       </c>
       <c r="J10">
-        <v>1.024403480604284</v>
+        <v>1.004496770354234</v>
       </c>
       <c r="K10">
-        <v>1.031842098789894</v>
+        <v>1.018424282865541</v>
       </c>
       <c r="L10">
-        <v>1.018294469522191</v>
-      </c>
-      <c r="M10">
-        <v>1.029421444255633</v>
+        <v>1.001016493390979</v>
       </c>
       <c r="N10">
-        <v>1.011520860191141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005515949973789</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.024134705024438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9923943658271922</v>
+        <v>0.9718052842595802</v>
       </c>
       <c r="D11">
-        <v>1.014948971401948</v>
+        <v>1.001852581485888</v>
       </c>
       <c r="E11">
-        <v>1.001095352972178</v>
-      </c>
-      <c r="F11">
-        <v>1.011815325921364</v>
+        <v>0.9836823598733858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043806628382377</v>
+        <v>1.039373365943133</v>
       </c>
       <c r="J11">
-        <v>1.02208700708778</v>
+        <v>1.002399926050578</v>
       </c>
       <c r="K11">
-        <v>1.029594373056376</v>
+        <v>1.016739645196282</v>
       </c>
       <c r="L11">
-        <v>1.015996642061659</v>
-      </c>
-      <c r="M11">
-        <v>1.026517810096073</v>
+        <v>0.9989187063673752</v>
       </c>
       <c r="N11">
-        <v>1.010724114349658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.004822483362684</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022976919005919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9910260993076127</v>
+        <v>0.9704965490006361</v>
       </c>
       <c r="D12">
-        <v>1.013882352134799</v>
+        <v>1.00098890222421</v>
       </c>
       <c r="E12">
-        <v>1.000005242686213</v>
-      </c>
-      <c r="F12">
-        <v>1.010497051741472</v>
+        <v>0.9826562138867677</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043269614238792</v>
+        <v>1.039040909486472</v>
       </c>
       <c r="J12">
-        <v>1.021215167096777</v>
+        <v>1.001604246702088</v>
       </c>
       <c r="K12">
-        <v>1.028748334973679</v>
+        <v>1.016097180920385</v>
       </c>
       <c r="L12">
-        <v>1.015132342255135</v>
-      </c>
-      <c r="M12">
-        <v>1.025425870638382</v>
+        <v>0.9981234115360846</v>
       </c>
       <c r="N12">
-        <v>1.010424217475779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.004557753877983</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02252266172654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9913203951403943</v>
+        <v>0.9707766610545467</v>
       </c>
       <c r="D13">
-        <v>1.014111724738319</v>
+        <v>1.001173039639459</v>
       </c>
       <c r="E13">
-        <v>1.000239643271276</v>
-      </c>
-      <c r="F13">
-        <v>1.010780528249718</v>
+        <v>0.9828755354451945</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043385195878294</v>
+        <v>1.039111723871487</v>
       </c>
       <c r="J13">
-        <v>1.021402705528649</v>
+        <v>1.001774088162881</v>
       </c>
       <c r="K13">
-        <v>1.028930326353157</v>
+        <v>1.01623384201311</v>
       </c>
       <c r="L13">
-        <v>1.015318235048829</v>
-      </c>
-      <c r="M13">
-        <v>1.025660713900705</v>
+        <v>0.9982931702086704</v>
       </c>
       <c r="N13">
-        <v>1.010488728423873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004613935929924</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.022616753748313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.992281622686824</v>
+        <v>0.9716968560336932</v>
       </c>
       <c r="D14">
-        <v>1.014861064357832</v>
+        <v>1.001780717398348</v>
       </c>
       <c r="E14">
-        <v>1.001005499222354</v>
-      </c>
-      <c r="F14">
-        <v>1.011706672190911</v>
+        <v>0.983597211475694</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043762413963714</v>
+        <v>1.039345677806898</v>
       </c>
       <c r="J14">
-        <v>1.022015176626267</v>
+        <v>1.002333807539511</v>
       </c>
       <c r="K14">
-        <v>1.029524669812853</v>
+        <v>1.016686054838053</v>
       </c>
       <c r="L14">
-        <v>1.015925422183806</v>
-      </c>
-      <c r="M14">
-        <v>1.026427827754951</v>
+        <v>0.9988526195351274</v>
       </c>
       <c r="N14">
-        <v>1.010699406543075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004800346616991</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022937941984023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9928715480186165</v>
+        <v>0.9722643596858355</v>
       </c>
       <c r="D15">
-        <v>1.015321073528952</v>
+        <v>1.00215695323472</v>
       </c>
       <c r="E15">
-        <v>1.001475716716682</v>
-      </c>
-      <c r="F15">
-        <v>1.012275259384673</v>
+        <v>0.98404296061708</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043993694660152</v>
+        <v>1.0394905433737</v>
       </c>
       <c r="J15">
-        <v>1.022391011424366</v>
+        <v>1.002679904592023</v>
       </c>
       <c r="K15">
-        <v>1.029889371590521</v>
+        <v>1.016966604800007</v>
       </c>
       <c r="L15">
-        <v>1.016298083574535</v>
-      </c>
-      <c r="M15">
-        <v>1.026898673804716</v>
+        <v>0.9991985696955026</v>
       </c>
       <c r="N15">
-        <v>1.010828682770267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004916254797605</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.023142275221379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1007,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9962705426381655</v>
+        <v>0.9755174168037439</v>
       </c>
       <c r="D16">
-        <v>1.017973341620362</v>
+        <v>1.004306488822548</v>
       </c>
       <c r="E16">
-        <v>1.004187894928068</v>
-      </c>
-      <c r="F16">
-        <v>1.015554195462874</v>
+        <v>0.9865983931574347</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045322807628133</v>
+        <v>1.04031022510388</v>
       </c>
       <c r="J16">
-        <v>1.024555652272766</v>
+        <v>1.004657213820269</v>
       </c>
       <c r="K16">
-        <v>1.031989743776164</v>
+        <v>1.01856197066541</v>
       </c>
       <c r="L16">
-        <v>1.018445488348673</v>
-      </c>
-      <c r="M16">
-        <v>1.029612310348549</v>
+        <v>1.001176504991489</v>
       </c>
       <c r="N16">
-        <v>1.011573194727842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005574480635129</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.024273502433085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1048,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9983729647771868</v>
+        <v>0.9775299921636992</v>
       </c>
       <c r="D17">
-        <v>1.019615411007663</v>
+        <v>1.005637550299084</v>
       </c>
       <c r="E17">
-        <v>1.005867982659714</v>
-      </c>
-      <c r="F17">
-        <v>1.017584841584495</v>
+        <v>0.988182117759865</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046141834802042</v>
+        <v>1.040812889329051</v>
       </c>
       <c r="J17">
-        <v>1.025893811453278</v>
+        <v>1.005879912003785</v>
       </c>
       <c r="K17">
-        <v>1.033288035440532</v>
+        <v>1.019547449637886</v>
       </c>
       <c r="L17">
-        <v>1.019773901249565</v>
-      </c>
-      <c r="M17">
-        <v>1.03129141336705</v>
+        <v>1.002400579524068</v>
       </c>
       <c r="N17">
-        <v>1.012033383502908</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005981552751705</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024972914907982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9995888908765912</v>
+        <v>0.9786867828029304</v>
       </c>
       <c r="D18">
-        <v>1.020565619894135</v>
+        <v>1.006399301623167</v>
       </c>
       <c r="E18">
-        <v>1.006840526452949</v>
-      </c>
-      <c r="F18">
-        <v>1.018760132849436</v>
+        <v>0.9890921931930743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046614387461292</v>
+        <v>1.041097681806898</v>
       </c>
       <c r="J18">
-        <v>1.026667438420921</v>
+        <v>1.006579882899549</v>
       </c>
       <c r="K18">
-        <v>1.034038561417264</v>
+        <v>1.020108481525278</v>
       </c>
       <c r="L18">
-        <v>1.020542219000915</v>
-      </c>
-      <c r="M18">
-        <v>1.032262712877734</v>
+        <v>1.003101903917238</v>
       </c>
       <c r="N18">
-        <v>1.012299406679257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006212970459084</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.025357778941958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000001758251721</v>
+        <v>0.9790852356138706</v>
       </c>
       <c r="D19">
-        <v>1.020888349945695</v>
+        <v>1.006664632563017</v>
       </c>
       <c r="E19">
-        <v>1.007170899313585</v>
-      </c>
-      <c r="F19">
-        <v>1.019159349697894</v>
+        <v>0.9894067436448191</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046774649652058</v>
+        <v>1.041197449054596</v>
       </c>
       <c r="J19">
-        <v>1.026930072314611</v>
+        <v>1.006822944287506</v>
       </c>
       <c r="K19">
-        <v>1.034293343711825</v>
+        <v>1.02030537731022</v>
       </c>
       <c r="L19">
-        <v>1.02080310553789</v>
-      </c>
-      <c r="M19">
-        <v>1.032592549179015</v>
+        <v>1.003345330158216</v>
       </c>
       <c r="N19">
-        <v>1.012389712809369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006294610863408</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.025503482706217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,81 +1171,81 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9981484754619296</v>
+        <v>0.977314515791649</v>
       </c>
       <c r="D20">
-        <v>1.019440021457166</v>
+        <v>1.005494710849141</v>
       </c>
       <c r="E20">
-        <v>1.005688497640941</v>
-      </c>
-      <c r="F20">
-        <v>1.017367924907091</v>
+        <v>0.9880123632664124</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046054498593463</v>
+        <v>1.040759046655704</v>
       </c>
       <c r="J20">
-        <v>1.025750957324529</v>
+        <v>1.005748829200647</v>
       </c>
       <c r="K20">
-        <v>1.033149442715037</v>
+        <v>1.01944162562446</v>
       </c>
       <c r="L20">
-        <v>1.019632053768651</v>
-      </c>
-      <c r="M20">
-        <v>1.031112103612325</v>
+        <v>1.002269327648567</v>
       </c>
       <c r="N20">
-        <v>1.011984258917571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005937781382142</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024896736105418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9919990500675661</v>
+        <v>0.9714340051545318</v>
       </c>
       <c r="D21">
-        <v>1.0146407545494</v>
+        <v>1.001610951044051</v>
       </c>
       <c r="E21">
-        <v>1.000780319094653</v>
-      </c>
-      <c r="F21">
-        <v>1.011434372638057</v>
+        <v>0.9833923238639549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043651569993493</v>
+        <v>1.039281464812658</v>
       </c>
       <c r="J21">
-        <v>1.021835138782609</v>
+        <v>1.002176588663718</v>
       </c>
       <c r="K21">
-        <v>1.02934996255596</v>
+        <v>1.016561867602873</v>
       </c>
       <c r="L21">
-        <v>1.015746923156895</v>
-      </c>
-      <c r="M21">
-        <v>1.026202307810554</v>
+        <v>0.9986953159230297</v>
       </c>
       <c r="N21">
-        <v>1.010637477773147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.004749796723438</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.022863872654412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9880322247470569</v>
+        <v>0.9676325419105258</v>
       </c>
       <c r="D22">
-        <v>1.011550291774261</v>
+        <v>0.9990998769480373</v>
       </c>
       <c r="E22">
-        <v>0.9976227831265656</v>
-      </c>
-      <c r="F22">
-        <v>1.007615305917096</v>
+        <v>0.9804135272816651</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042091472615433</v>
+        <v>1.038308571517197</v>
       </c>
       <c r="J22">
-        <v>1.019306833191479</v>
+        <v>0.9998621718890425</v>
       </c>
       <c r="K22">
-        <v>1.026896355959656</v>
+        <v>1.014689186566282</v>
       </c>
       <c r="L22">
-        <v>1.01324148070309</v>
-      </c>
-      <c r="M22">
-        <v>1.023037396731279</v>
+        <v>0.996383244362409</v>
       </c>
       <c r="N22">
-        <v>1.009767741538205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003977993305321</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.021526043189262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9901449854465042</v>
+        <v>0.9696478854910043</v>
       </c>
       <c r="D23">
-        <v>1.01319575804574</v>
+        <v>1.000426094012201</v>
       </c>
       <c r="E23">
-        <v>0.9993036747373786</v>
-      </c>
-      <c r="F23">
-        <v>1.009648548350392</v>
+        <v>0.9819902451443042</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042923317295063</v>
+        <v>1.038822659594841</v>
       </c>
       <c r="J23">
-        <v>1.020653627277097</v>
+        <v>1.001086139248551</v>
       </c>
       <c r="K23">
-        <v>1.028203394681202</v>
+        <v>1.015676498717924</v>
       </c>
       <c r="L23">
-        <v>1.014575806939404</v>
-      </c>
-      <c r="M23">
-        <v>1.024722817211619</v>
+        <v>0.9976058180172138</v>
       </c>
       <c r="N23">
-        <v>1.010231050954433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00438396178292</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.022214338004084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1335,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9982499445287402</v>
+        <v>0.977396529651533</v>
       </c>
       <c r="D24">
-        <v>1.019519295828648</v>
+        <v>1.005541312604136</v>
       </c>
       <c r="E24">
-        <v>1.005769622085203</v>
-      </c>
-      <c r="F24">
-        <v>1.017465968431097</v>
+        <v>0.9880744812553557</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046093978021651</v>
+        <v>1.040774302821352</v>
       </c>
       <c r="J24">
-        <v>1.025815528231837</v>
+        <v>1.0057933297627</v>
       </c>
       <c r="K24">
-        <v>1.033212087606487</v>
+        <v>1.019471810415261</v>
       </c>
       <c r="L24">
-        <v>1.019696168656343</v>
-      </c>
-      <c r="M24">
-        <v>1.031193150929019</v>
+        <v>1.002314309805872</v>
       </c>
       <c r="N24">
-        <v>1.012006463596757</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005949184035146</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024890264173532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1376,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007250964358209</v>
+        <v>0.9860052946391942</v>
       </c>
       <c r="D25">
-        <v>1.026561938787681</v>
+        <v>1.011238351771234</v>
       </c>
       <c r="E25">
-        <v>1.012983792764865</v>
-      </c>
-      <c r="F25">
-        <v>1.026181224137415</v>
+        <v>0.9948708351306748</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049571596219528</v>
+        <v>1.042878973242637</v>
       </c>
       <c r="J25">
-        <v>1.031536744663928</v>
+        <v>1.011012992947245</v>
       </c>
       <c r="K25">
-        <v>1.038761447668304</v>
+        <v>1.023664676334336</v>
       </c>
       <c r="L25">
-        <v>1.025383841001485</v>
-      </c>
-      <c r="M25">
-        <v>1.038386264187166</v>
+        <v>1.007549300053769</v>
       </c>
       <c r="N25">
-        <v>1.013973270818543</v>
+        <v>1.00768529004998</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.027852008409813</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,40 +439,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9925642595901147</v>
+        <v>0.9934866936223318</v>
       </c>
       <c r="D2">
-        <v>1.015572044623129</v>
+        <v>1.016154582759118</v>
       </c>
       <c r="E2">
-        <v>1.000071627764591</v>
+        <v>1.000868949510097</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044418975320612</v>
+        <v>1.044714645754785</v>
       </c>
       <c r="J2">
-        <v>1.014969669973527</v>
+        <v>1.015863977258145</v>
       </c>
       <c r="K2">
-        <v>1.026818616560683</v>
+        <v>1.027393354373694</v>
       </c>
       <c r="L2">
-        <v>1.011529964788194</v>
+        <v>1.012316191745859</v>
       </c>
       <c r="N2">
-        <v>1.008996052238044</v>
+        <v>1.011473669203871</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030033199694919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03044847061377</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019468991599565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,40 +489,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9971942780100922</v>
+        <v>0.9978175604743883</v>
       </c>
       <c r="D3">
-        <v>1.018642228998645</v>
+        <v>1.018908529091634</v>
       </c>
       <c r="E3">
-        <v>1.003759678508776</v>
+        <v>1.004298623874344</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04547947958585</v>
+        <v>1.045614788065554</v>
       </c>
       <c r="J3">
-        <v>1.017761723167875</v>
+        <v>1.018367898325332</v>
       </c>
       <c r="K3">
-        <v>1.029042008678248</v>
+        <v>1.029305055809552</v>
       </c>
       <c r="L3">
-        <v>1.014344678513315</v>
+        <v>1.014876796893691</v>
       </c>
       <c r="N3">
-        <v>1.009924444330147</v>
+        <v>1.012135536478906</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031602675243956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031797264990323</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019871200765641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -515,40 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000126090607547</v>
+        <v>1.000562550150242</v>
       </c>
       <c r="D4">
-        <v>1.020587530288234</v>
+        <v>1.020655284873575</v>
       </c>
       <c r="E4">
-        <v>1.006101432188573</v>
+        <v>1.006478712941004</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046135905913987</v>
+        <v>1.046170356808249</v>
       </c>
       <c r="J4">
-        <v>1.019526571524378</v>
+        <v>1.019951876776096</v>
       </c>
       <c r="K4">
-        <v>1.030443672881783</v>
+        <v>1.030510650028822</v>
       </c>
       <c r="L4">
-        <v>1.016126771873273</v>
+        <v>1.01649956946313</v>
       </c>
       <c r="N4">
-        <v>1.010511437845764</v>
+        <v>1.012554402302988</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032594700273046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032650725883624</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020122135468408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,40 +589,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00134724209636</v>
+        <v>1.001706494809384</v>
       </c>
       <c r="D5">
-        <v>1.021399810835777</v>
+        <v>1.021385341928065</v>
       </c>
       <c r="E5">
-        <v>1.007078747320162</v>
+        <v>1.007389134308437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046406941484831</v>
+        <v>1.046399582327046</v>
       </c>
       <c r="J5">
-        <v>1.020262145576072</v>
+        <v>1.020612496236378</v>
       </c>
       <c r="K5">
-        <v>1.031028339228611</v>
+        <v>1.031014031896549</v>
       </c>
       <c r="L5">
-        <v>1.016870006182944</v>
+        <v>1.017176805651169</v>
       </c>
       <c r="N5">
-        <v>1.010756727422306</v>
+        <v>1.012729572382103</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033015356374211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033014613549506</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020226596956413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,40 +639,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001555569198928</v>
+        <v>1.001901712656609</v>
       </c>
       <c r="D6">
-        <v>1.021540586448913</v>
+        <v>1.021512217066207</v>
       </c>
       <c r="E6">
-        <v>1.007246094745326</v>
+        <v>1.007545097170486</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046454558167373</v>
+        <v>1.046440128235097</v>
       </c>
       <c r="J6">
-        <v>1.020389132572101</v>
+        <v>1.020726743701624</v>
       </c>
       <c r="K6">
-        <v>1.031130898487517</v>
+        <v>1.031102844448468</v>
       </c>
       <c r="L6">
-        <v>1.016998076980129</v>
+        <v>1.01729363970803</v>
       </c>
       <c r="N6">
-        <v>1.010799802894683</v>
+        <v>1.012760398378758</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033096702534786</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033087106321911</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020245409151468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,40 +689,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000153531608973</v>
+        <v>1.000599991668405</v>
       </c>
       <c r="D7">
-        <v>1.020611607229623</v>
+        <v>1.020685611268119</v>
       </c>
       <c r="E7">
-        <v>1.006124826226362</v>
+        <v>1.006511077162304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046146259409547</v>
+        <v>1.046183888106385</v>
       </c>
       <c r="J7">
-        <v>1.019547221595444</v>
+        <v>1.019982276965355</v>
       </c>
       <c r="K7">
-        <v>1.030464553390786</v>
+        <v>1.03053770862241</v>
       </c>
       <c r="L7">
-        <v>1.016146910980088</v>
+        <v>1.016528574017643</v>
       </c>
       <c r="N7">
-        <v>1.010520303517016</v>
+        <v>1.012590245990125</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032629771703457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032692160213776</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020129476718065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,40 +739,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9941560989475354</v>
+        <v>0.9950111691643326</v>
       </c>
       <c r="D8">
-        <v>1.016634336549287</v>
+        <v>1.017132275877959</v>
       </c>
       <c r="E8">
-        <v>1.001340109890551</v>
+        <v>1.002080495823641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044791739533866</v>
+        <v>1.045044563637128</v>
       </c>
       <c r="J8">
-        <v>1.015935189212623</v>
+        <v>1.016765083230886</v>
       </c>
       <c r="K8">
-        <v>1.027593602520612</v>
+        <v>1.028085074489955</v>
       </c>
       <c r="L8">
-        <v>1.012501959084795</v>
+        <v>1.01323235903066</v>
       </c>
       <c r="N8">
-        <v>1.009319652127389</v>
+        <v>1.011793891601312</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030604354978154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030963004197419</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019618177146703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,40 +789,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9830529753035431</v>
+        <v>0.9846479287168745</v>
       </c>
       <c r="D9">
-        <v>1.009274988403601</v>
+        <v>1.010545554929178</v>
       </c>
       <c r="E9">
-        <v>0.992533181508798</v>
+        <v>0.9939107019756638</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042159905849254</v>
+        <v>1.042803438897838</v>
       </c>
       <c r="J9">
-        <v>1.009218704948132</v>
+        <v>1.01075470410883</v>
       </c>
       <c r="K9">
-        <v>1.02221935660193</v>
+        <v>1.023469823883374</v>
       </c>
       <c r="L9">
-        <v>1.005748575553543</v>
+        <v>1.007103352464005</v>
       </c>
       <c r="N9">
-        <v>1.007085032853684</v>
+        <v>1.010214374799158</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026801089265917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027696161237317</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018630752970721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -761,40 +839,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9752662592703419</v>
+        <v>0.9774522597193439</v>
       </c>
       <c r="D10">
-        <v>1.004129184024665</v>
+        <v>1.005989142010949</v>
       </c>
       <c r="E10">
-        <v>0.9863972149346789</v>
+        <v>0.988283058223885</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040239691103814</v>
+        <v>1.041180235996921</v>
       </c>
       <c r="J10">
-        <v>1.004496770354234</v>
+        <v>1.006589939605465</v>
       </c>
       <c r="K10">
-        <v>1.018424282865541</v>
+        <v>1.020251096128057</v>
       </c>
       <c r="L10">
-        <v>1.001016493390979</v>
+        <v>1.002867138050726</v>
       </c>
       <c r="N10">
-        <v>1.005515949973789</v>
+        <v>1.009234667565051</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.024134705024438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025438991579359</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017930585891785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,40 +889,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9718052842595802</v>
+        <v>0.9743454226892102</v>
       </c>
       <c r="D11">
-        <v>1.001852581485888</v>
+        <v>1.00403596488658</v>
       </c>
       <c r="E11">
-        <v>0.9836823598733858</v>
+        <v>0.9858753131597673</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039373365943133</v>
+        <v>1.04047670298606</v>
       </c>
       <c r="J11">
-        <v>1.002399926050578</v>
+        <v>1.004825826584679</v>
       </c>
       <c r="K11">
-        <v>1.016739645196282</v>
+        <v>1.018882168083076</v>
       </c>
       <c r="L11">
-        <v>0.9989187063673752</v>
+        <v>1.001068608458826</v>
       </c>
       <c r="N11">
-        <v>1.004822483362684</v>
+        <v>1.009005906195374</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022976919005919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024507634029328</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017634060836037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -843,40 +939,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9704965490006361</v>
+        <v>0.9731795107628912</v>
       </c>
       <c r="D12">
-        <v>1.00098890222421</v>
+        <v>1.003300383632538</v>
       </c>
       <c r="E12">
-        <v>0.9826562138867677</v>
+        <v>0.9849733090612668</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039040909486472</v>
+        <v>1.040208681587416</v>
       </c>
       <c r="J12">
-        <v>1.001604246702088</v>
+        <v>1.004163992377589</v>
       </c>
       <c r="K12">
-        <v>1.016097180920385</v>
+        <v>1.018364625482692</v>
       </c>
       <c r="L12">
-        <v>0.9981234115360846</v>
+        <v>1.000394172476807</v>
       </c>
       <c r="N12">
-        <v>1.004557753877983</v>
+        <v>1.008935802843514</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02252266172654</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.024141712577692</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017521181378654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -884,40 +989,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9707766610545467</v>
+        <v>0.9734286593183891</v>
       </c>
       <c r="D13">
-        <v>1.001173039639459</v>
+        <v>1.003456810191659</v>
       </c>
       <c r="E13">
-        <v>0.9828755354451945</v>
+        <v>0.9851657369182844</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039111723871487</v>
+        <v>1.040265559152522</v>
       </c>
       <c r="J13">
-        <v>1.001774088162881</v>
+        <v>1.004304836109526</v>
       </c>
       <c r="K13">
-        <v>1.01623384201311</v>
+        <v>1.01847426906274</v>
       </c>
       <c r="L13">
-        <v>0.9982931702086704</v>
+        <v>1.000537755026127</v>
       </c>
       <c r="N13">
-        <v>1.004613935929924</v>
+        <v>1.008949625023779</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.022616753748313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.024216459877384</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017545001937499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -925,40 +1039,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9716968560336932</v>
+        <v>0.9742486452225314</v>
       </c>
       <c r="D14">
-        <v>1.001780717398348</v>
+        <v>1.003974578936352</v>
       </c>
       <c r="E14">
-        <v>0.983597211475694</v>
+        <v>0.9858002991463045</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039345677806898</v>
+        <v>1.04045428643372</v>
       </c>
       <c r="J14">
-        <v>1.002333807539511</v>
+        <v>1.004770634880755</v>
       </c>
       <c r="K14">
-        <v>1.016686054838053</v>
+        <v>1.018838798786136</v>
       </c>
       <c r="L14">
-        <v>0.9988526195351274</v>
+        <v>1.001012390767221</v>
       </c>
       <c r="N14">
-        <v>1.004800346616991</v>
+        <v>1.008999564587735</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022937941984023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.024475781811285</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017624560953279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -966,40 +1089,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9722643596858355</v>
+        <v>0.9747555289810055</v>
       </c>
       <c r="D15">
-        <v>1.00215695323472</v>
+        <v>1.004296217215764</v>
       </c>
       <c r="E15">
-        <v>0.98404296061708</v>
+        <v>0.9861933235068084</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.0394905433737</v>
+        <v>1.040571682043929</v>
       </c>
       <c r="J15">
-        <v>1.002679904592023</v>
+        <v>1.005059863771881</v>
       </c>
       <c r="K15">
-        <v>1.016966604800007</v>
+        <v>1.019066085613729</v>
       </c>
       <c r="L15">
-        <v>0.9991985696955026</v>
+        <v>1.001306991284418</v>
       </c>
       <c r="N15">
-        <v>1.004916254797605</v>
+        <v>1.009033526603625</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.023142275221379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.02464301632076</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017674351495733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1007,40 +1139,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9755174168037439</v>
+        <v>0.977679632538053</v>
       </c>
       <c r="D16">
-        <v>1.004306488822548</v>
+        <v>1.006144807926334</v>
       </c>
       <c r="E16">
-        <v>0.9865983931574347</v>
+        <v>0.9884632963442371</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04031022510388</v>
+        <v>1.041239871228299</v>
       </c>
       <c r="J16">
-        <v>1.004657213820269</v>
+        <v>1.006727968233265</v>
       </c>
       <c r="K16">
-        <v>1.01856197066541</v>
+        <v>1.020367640874956</v>
       </c>
       <c r="L16">
-        <v>1.001176504991489</v>
+        <v>1.003006720614327</v>
       </c>
       <c r="N16">
-        <v>1.005574480635129</v>
+        <v>1.00926185247641</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024273502433085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.025566787951601</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017957805695278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1048,40 +1189,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9775299921636992</v>
+        <v>0.9795070957740168</v>
       </c>
       <c r="D17">
-        <v>1.005637550299084</v>
+        <v>1.007301981037548</v>
       </c>
       <c r="E17">
-        <v>0.988182117759865</v>
+        <v>0.9898867534529009</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040812889329051</v>
+        <v>1.041654941069008</v>
       </c>
       <c r="J17">
-        <v>1.005879912003785</v>
+        <v>1.007776220199395</v>
       </c>
       <c r="K17">
-        <v>1.019547449637886</v>
+        <v>1.021183180042415</v>
       </c>
       <c r="L17">
-        <v>1.002400579524068</v>
+        <v>1.004074458966813</v>
       </c>
       <c r="N17">
-        <v>1.005981552751705</v>
+        <v>1.00944233623877</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024972914907982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.026146281404543</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018135218910232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1089,40 +1239,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9786867828029304</v>
+        <v>0.980564560693595</v>
       </c>
       <c r="D18">
-        <v>1.006399301623167</v>
+        <v>1.007968337349586</v>
       </c>
       <c r="E18">
-        <v>0.9890921931930743</v>
+        <v>0.9907110830766098</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041097681806898</v>
+        <v>1.041891660541764</v>
       </c>
       <c r="J18">
-        <v>1.006579882899549</v>
+        <v>1.008382471000757</v>
       </c>
       <c r="K18">
-        <v>1.020108481525278</v>
+        <v>1.021650929978838</v>
       </c>
       <c r="L18">
-        <v>1.003101903917238</v>
+        <v>1.004692105096922</v>
       </c>
       <c r="N18">
-        <v>1.006212970459084</v>
+        <v>1.009559535186726</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.025357778941958</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.026464058260831</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018236309325286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,40 +1289,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9790852356138706</v>
+        <v>0.9809301095714744</v>
       </c>
       <c r="D19">
-        <v>1.006664632563017</v>
+        <v>1.008201817295055</v>
       </c>
       <c r="E19">
-        <v>0.9894067436448191</v>
+        <v>0.9909971896040007</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041197449054596</v>
+        <v>1.041975373449584</v>
       </c>
       <c r="J19">
-        <v>1.006822944287506</v>
+        <v>1.008594461551126</v>
       </c>
       <c r="K19">
-        <v>1.02030537731022</v>
+        <v>1.021816670590575</v>
       </c>
       <c r="L19">
-        <v>1.003345330158216</v>
+        <v>1.004907765306619</v>
       </c>
       <c r="N19">
-        <v>1.006294610863408</v>
+        <v>1.00960430786598</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.025503482706217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.026588349496788</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01827261624317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1171,81 +1339,99 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.977314515791649</v>
+        <v>0.9793106950568439</v>
       </c>
       <c r="D20">
-        <v>1.005494710849141</v>
+        <v>1.007177249151515</v>
       </c>
       <c r="E20">
-        <v>0.9880123632664124</v>
+        <v>0.9897335053583554</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040759046655704</v>
+        <v>1.041610222031906</v>
       </c>
       <c r="J20">
-        <v>1.005748829200647</v>
+        <v>1.007663128726196</v>
       </c>
       <c r="K20">
-        <v>1.01944162562446</v>
+        <v>1.021095058488518</v>
       </c>
       <c r="L20">
-        <v>1.002269327648567</v>
+        <v>1.00395931328529</v>
       </c>
       <c r="N20">
-        <v>1.005937781382142</v>
+        <v>1.009421246403981</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024896736105418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.026082491628473</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018116005719418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9714340051545318</v>
+        <v>0.9740439791764073</v>
       </c>
       <c r="D21">
-        <v>1.001610951044051</v>
+        <v>1.003850581549913</v>
       </c>
       <c r="E21">
-        <v>0.9833923238639549</v>
+        <v>0.9856468250608663</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039281464812658</v>
+        <v>1.040413142881347</v>
       </c>
       <c r="J21">
-        <v>1.002176588663718</v>
+        <v>1.004668474626716</v>
       </c>
       <c r="K21">
-        <v>1.016561867602873</v>
+        <v>1.0187593688607</v>
       </c>
       <c r="L21">
-        <v>0.9986953159230297</v>
+        <v>1.000905322288241</v>
       </c>
       <c r="N21">
-        <v>1.004749796723438</v>
+        <v>1.009057732800906</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.022863872654412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.024434658337512</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017609023423112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,40 +1439,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9676325419105258</v>
+        <v>0.9706413677749753</v>
       </c>
       <c r="D22">
-        <v>0.9990998769480373</v>
+        <v>1.001700599704061</v>
       </c>
       <c r="E22">
-        <v>0.9804135272816651</v>
+        <v>0.9830141296491355</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038308571517197</v>
+        <v>1.039621748420872</v>
       </c>
       <c r="J22">
-        <v>0.9998621718890425</v>
+        <v>1.002726498231993</v>
       </c>
       <c r="K22">
-        <v>1.014689186566282</v>
+        <v>1.017238442493456</v>
       </c>
       <c r="L22">
-        <v>0.996383244362409</v>
+        <v>0.9989297606918842</v>
       </c>
       <c r="N22">
-        <v>1.003977993305321</v>
+        <v>1.008808119759494</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.021526043189262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.023344268642476</v>
+      </c>
+      <c r="S22">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T22">
+        <v>1.017274960608113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1294,40 +1489,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9696478854910043</v>
+        <v>0.9724255291290894</v>
       </c>
       <c r="D23">
-        <v>1.000426094012201</v>
+        <v>1.002821902326225</v>
       </c>
       <c r="E23">
-        <v>0.9819902451443042</v>
+        <v>0.9843898013066639</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038822659594841</v>
+        <v>1.040032836797748</v>
       </c>
       <c r="J23">
-        <v>1.001086139248551</v>
+        <v>1.003734506196341</v>
       </c>
       <c r="K23">
-        <v>1.015676498717924</v>
+        <v>1.018026142638647</v>
       </c>
       <c r="L23">
-        <v>0.9976058180172138</v>
+        <v>0.9999568254551283</v>
       </c>
       <c r="N23">
-        <v>1.00438396178292</v>
+        <v>1.008892724923882</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.022214338004084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.023890485517094</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017446837102053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,40 +1539,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.977396529651533</v>
+        <v>0.979385262318801</v>
       </c>
       <c r="D24">
-        <v>1.005541312604136</v>
+        <v>1.007216474313272</v>
       </c>
       <c r="E24">
-        <v>0.9880744812553557</v>
+        <v>0.9897893782189292</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040774302821352</v>
+        <v>1.041621762548372</v>
       </c>
       <c r="J24">
-        <v>1.0057933297627</v>
+        <v>1.00770062192273</v>
       </c>
       <c r="K24">
-        <v>1.019471810415261</v>
+        <v>1.021118034779013</v>
       </c>
       <c r="L24">
-        <v>1.002314309805872</v>
+        <v>1.003998208337648</v>
       </c>
       <c r="N24">
-        <v>1.005949184035146</v>
+        <v>1.009424728250278</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024890264173532</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026068271017187</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018119718988775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1376,37 +1589,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9860052946391942</v>
+        <v>0.9873861918996916</v>
       </c>
       <c r="D25">
-        <v>1.011238351771234</v>
+        <v>1.012292354617992</v>
       </c>
       <c r="E25">
-        <v>0.9948708351306748</v>
+        <v>0.9960636989181447</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042878973242637</v>
+        <v>1.043413154722406</v>
       </c>
       <c r="J25">
-        <v>1.011012992947245</v>
+        <v>1.012345647659078</v>
       </c>
       <c r="K25">
-        <v>1.023664676334336</v>
+        <v>1.02470279814747</v>
       </c>
       <c r="L25">
-        <v>1.007549300053769</v>
+        <v>1.00872342978011</v>
       </c>
       <c r="N25">
-        <v>1.00768529004998</v>
+        <v>1.010603666447386</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.027852008409813</v>
+        <v>1.028599714340807</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018897863275689</v>
       </c>
     </row>
   </sheetData>
